--- a/工资表模板.xlsx
+++ b/工资表模板.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen.changfei\Desktop\工资查询系统\staff_salary\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B2F6A8-266A-4A49-9D2F-9890E6803D2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A96893-7A3B-459F-AE7D-786234D1387A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{AE5C5FC7-6F19-4686-87C6-8592E0D5EF2A}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="130">
   <si>
     <r>
       <rPr>
@@ -439,9 +439,6 @@
     <t>张立</t>
   </si>
   <si>
-    <t>缉私</t>
-  </si>
-  <si>
     <t>余钢</t>
   </si>
   <si>
@@ -500,10 +497,6 @@
   </si>
   <si>
     <t>科室负责人审批：</t>
-  </si>
-  <si>
-    <t>查验</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>付燕平</t>
@@ -539,6 +532,18 @@
   </si>
   <si>
     <t>董政</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫生监督</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>综合业务</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>单证辅助</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -818,7 +823,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -913,10 +918,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="15" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="15" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1003,6 +1004,9 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1039,8 +1043,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="177" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1356,7 +1373,7 @@
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="O4" sqref="O4:O5"/>
-      <selection pane="bottomLeft" activeCell="F80" sqref="F80"/>
+      <selection pane="bottomLeft" activeCell="B68" activeCellId="1" sqref="B53:B66 B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1462,34 +1479,34 @@
       <c r="P4" s="63"/>
     </row>
     <row r="5" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="56" t="s">
-        <v>126</v>
-      </c>
-      <c r="B5" s="57" t="s">
+      <c r="A5" s="55" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="57" t="s">
+      <c r="C5" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="57" t="s">
+      <c r="D5" s="56" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="57" t="s">
+      <c r="E5" s="56" t="s">
         <v>7</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="F5" s="56" t="s">
         <v>8</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="G5" s="56" t="s">
         <v>9</v>
       </c>
-      <c r="H5" s="57" t="s">
+      <c r="H5" s="56" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="57" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="57" t="s">
+      <c r="I5" s="56" t="s">
+        <v>11</v>
+      </c>
+      <c r="J5" s="56" t="s">
         <v>12</v>
       </c>
       <c r="K5" s="15" t="s">
@@ -1501,13 +1518,13 @@
       <c r="M5" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="N5" s="57" t="s">
+      <c r="N5" s="56" t="s">
         <v>14</v>
       </c>
-      <c r="O5" s="57" t="s">
+      <c r="O5" s="56" t="s">
         <v>15</v>
       </c>
-      <c r="P5" s="57" t="s">
+      <c r="P5" s="56" t="s">
         <v>16</v>
       </c>
       <c r="S5" s="1" t="s">
@@ -1530,19 +1547,19 @@
       <c r="E6" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F6" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G6" s="34">
+      <c r="F6" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G6" s="33">
         <v>550</v>
       </c>
-      <c r="H6" s="32">
-        <v>700</v>
-      </c>
-      <c r="I6" s="32">
-        <v>200</v>
-      </c>
-      <c r="J6" s="32">
+      <c r="H6" s="31">
+        <v>700</v>
+      </c>
+      <c r="I6" s="31">
+        <v>200</v>
+      </c>
+      <c r="J6" s="31">
         <v>600</v>
       </c>
       <c r="K6" s="18"/>
@@ -1553,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="O6" s="16">
-        <f t="shared" ref="O6:O36" si="0">N6+F6+G6+H6+I6+J6</f>
+        <f t="shared" ref="O6:O37" si="0">N6+F6+G6+H6+I6+J6</f>
         <v>3750</v>
       </c>
-      <c r="P6" s="51"/>
+      <c r="P6" s="50"/>
       <c r="S6" s="1" t="s">
         <v>24</v>
       </c>
@@ -1577,26 +1594,26 @@
       <c r="E7" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G7" s="34">
+      <c r="F7" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G7" s="33">
         <v>550</v>
       </c>
-      <c r="H7" s="32">
-        <v>700</v>
-      </c>
-      <c r="I7" s="32">
-        <v>200</v>
-      </c>
-      <c r="J7" s="32">
+      <c r="H7" s="31">
+        <v>700</v>
+      </c>
+      <c r="I7" s="31">
+        <v>200</v>
+      </c>
+      <c r="J7" s="31">
         <v>400</v>
       </c>
       <c r="K7" s="21"/>
       <c r="L7" s="22"/>
       <c r="M7" s="21"/>
       <c r="N7" s="16">
-        <f t="shared" ref="N7:N68" si="1">ROUND((F7+G7)/21.75/8*1.5*K7+(F7+G7)/21.75/8*2*L7+(F7+G7)/21.75/8*3*M7,0)</f>
+        <f t="shared" ref="N7:N69" si="1">ROUND((F7+G7)/21.75/8*1.5*K7+(F7+G7)/21.75/8*2*L7+(F7+G7)/21.75/8*3*M7,0)</f>
         <v>0</v>
       </c>
       <c r="O7" s="16">
@@ -1621,19 +1638,19 @@
       <c r="E8" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F8" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G8" s="34">
-        <v>400</v>
-      </c>
-      <c r="H8" s="32">
-        <v>700</v>
-      </c>
-      <c r="I8" s="32">
-        <v>200</v>
-      </c>
-      <c r="J8" s="32">
+      <c r="F8" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G8" s="33">
+        <v>400</v>
+      </c>
+      <c r="H8" s="31">
+        <v>700</v>
+      </c>
+      <c r="I8" s="31">
+        <v>200</v>
+      </c>
+      <c r="J8" s="31">
         <v>400</v>
       </c>
       <c r="K8" s="29"/>
@@ -1647,7 +1664,7 @@
         <f t="shared" si="0"/>
         <v>3400</v>
       </c>
-      <c r="P8" s="38"/>
+      <c r="P8" s="37"/>
     </row>
     <row r="9" spans="1:19" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A9" s="16">
@@ -1665,19 +1682,19 @@
       <c r="E9" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F9" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G9" s="33">
+      <c r="F9" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G9" s="32">
         <v>550</v>
       </c>
-      <c r="H9" s="32">
-        <v>700</v>
-      </c>
-      <c r="I9" s="32">
-        <v>200</v>
-      </c>
-      <c r="J9" s="32">
+      <c r="H9" s="31">
+        <v>700</v>
+      </c>
+      <c r="I9" s="31">
+        <v>200</v>
+      </c>
+      <c r="J9" s="31">
         <v>400</v>
       </c>
       <c r="K9" s="29"/>
@@ -1691,7 +1708,7 @@
         <f t="shared" si="0"/>
         <v>3550</v>
       </c>
-      <c r="P9" s="53"/>
+      <c r="P9" s="52"/>
     </row>
     <row r="10" spans="1:19" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A10" s="16">
@@ -1700,8 +1717,8 @@
       <c r="B10" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="C10" s="45" t="s">
-        <v>124</v>
+      <c r="C10" s="44" t="s">
+        <v>122</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>26</v>
@@ -1709,19 +1726,19 @@
       <c r="E10" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F10" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G10" s="33">
+      <c r="F10" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G10" s="32">
         <v>550</v>
       </c>
-      <c r="H10" s="32">
-        <v>700</v>
-      </c>
-      <c r="I10" s="32">
-        <v>200</v>
-      </c>
-      <c r="J10" s="32">
+      <c r="H10" s="31">
+        <v>700</v>
+      </c>
+      <c r="I10" s="31">
+        <v>200</v>
+      </c>
+      <c r="J10" s="31">
         <v>750</v>
       </c>
       <c r="K10" s="29"/>
@@ -1735,7 +1752,7 @@
         <f t="shared" si="0"/>
         <v>3900</v>
       </c>
-      <c r="P10" s="54"/>
+      <c r="P10" s="53"/>
     </row>
     <row r="11" spans="1:19" ht="19.149999999999999" x14ac:dyDescent="0.4">
       <c r="A11" s="16">
@@ -1744,8 +1761,8 @@
       <c r="B11" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="C11" s="45" t="s">
-        <v>125</v>
+      <c r="C11" s="44" t="s">
+        <v>123</v>
       </c>
       <c r="D11" s="14" t="s">
         <v>26</v>
@@ -1753,19 +1770,19 @@
       <c r="E11" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G11" s="33">
+      <c r="F11" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G11" s="32">
         <v>450</v>
       </c>
-      <c r="H11" s="32">
-        <v>700</v>
-      </c>
-      <c r="I11" s="32">
-        <v>200</v>
-      </c>
-      <c r="J11" s="32">
+      <c r="H11" s="31">
+        <v>700</v>
+      </c>
+      <c r="I11" s="31">
+        <v>200</v>
+      </c>
+      <c r="J11" s="31">
         <v>400</v>
       </c>
       <c r="K11" s="29"/>
@@ -1779,17 +1796,17 @@
         <f t="shared" si="0"/>
         <v>3450</v>
       </c>
-      <c r="P11" s="38"/>
-    </row>
-    <row r="12" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P11" s="37"/>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>7</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="C12" s="17" t="s">
-        <v>22</v>
+        <v>97</v>
+      </c>
+      <c r="C12" s="73" t="s">
+        <v>129</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>23</v>
@@ -1797,43 +1814,43 @@
       <c r="E12" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F12" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G12" s="34">
-        <v>550</v>
-      </c>
-      <c r="H12" s="32">
-        <v>700</v>
-      </c>
-      <c r="I12" s="32">
-        <v>200</v>
-      </c>
-      <c r="J12" s="32">
-        <v>400</v>
-      </c>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15"/>
+      <c r="F12" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G12" s="32">
+        <v>500</v>
+      </c>
+      <c r="H12" s="31">
+        <v>700</v>
+      </c>
+      <c r="I12" s="31">
+        <v>200</v>
+      </c>
+      <c r="J12" s="31">
+        <v>400</v>
+      </c>
+      <c r="K12" s="16"/>
+      <c r="L12" s="14"/>
       <c r="M12" s="15"/>
       <c r="N12" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F12+G12)/21.75/8*1.5*K12+(F12+G12)/21.75/8*2*L12+(F12+G12)/21.75/8*3*M12,0)</f>
         <v>0</v>
       </c>
       <c r="O12" s="16">
-        <f t="shared" si="0"/>
-        <v>3550</v>
-      </c>
-      <c r="P12" s="52"/>
+        <f>N12+F12+G12+H12+I12+J12</f>
+        <v>3500</v>
+      </c>
+      <c r="P12" s="39"/>
     </row>
     <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>8</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" s="24" t="s">
-        <v>33</v>
+        <v>34</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>23</v>
@@ -1841,22 +1858,22 @@
       <c r="E13" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F13" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G13" s="33">
+      <c r="F13" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G13" s="32">
         <v>550</v>
       </c>
-      <c r="H13" s="32">
-        <v>700</v>
-      </c>
-      <c r="I13" s="32">
-        <v>200</v>
-      </c>
-      <c r="J13" s="32">
-        <v>400</v>
-      </c>
-      <c r="K13" s="14"/>
+      <c r="H13" s="31">
+        <v>700</v>
+      </c>
+      <c r="I13" s="31">
+        <v>200</v>
+      </c>
+      <c r="J13" s="31">
+        <v>400</v>
+      </c>
+      <c r="K13" s="15"/>
       <c r="L13" s="15"/>
       <c r="M13" s="15"/>
       <c r="N13" s="16">
@@ -1869,15 +1886,15 @@
       </c>
       <c r="P13" s="23"/>
     </row>
-    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A14" s="16">
         <v>9</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>22</v>
+        <v>39</v>
+      </c>
+      <c r="C14" s="71" t="s">
+        <v>128</v>
       </c>
       <c r="D14" s="14" t="s">
         <v>23</v>
@@ -1885,33 +1902,33 @@
       <c r="E14" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F14" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G14" s="33">
+      <c r="F14" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G14" s="32">
         <v>550</v>
       </c>
-      <c r="H14" s="32">
-        <v>700</v>
-      </c>
-      <c r="I14" s="32">
-        <v>200</v>
-      </c>
-      <c r="J14" s="32">
-        <v>400</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15"/>
-      <c r="M14" s="15"/>
+      <c r="H14" s="31">
+        <v>700</v>
+      </c>
+      <c r="I14" s="31">
+        <v>200</v>
+      </c>
+      <c r="J14" s="31">
+        <v>400</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
       <c r="N14" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F14+G14)/21.75/8*1.5*K14+(F14+G14)/21.75/8*2*L14+(F14+G14)/21.75/8*3*M14,0)</f>
         <v>0</v>
       </c>
       <c r="O14" s="16">
-        <f t="shared" si="0"/>
+        <f>N14+F14+G14+H14+I14+J14</f>
         <v>3550</v>
       </c>
-      <c r="P14" s="23"/>
+      <c r="P14" s="38"/>
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16">
@@ -1929,19 +1946,19 @@
       <c r="E15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F15" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G15" s="33">
+      <c r="F15" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G15" s="32">
         <v>550</v>
       </c>
-      <c r="H15" s="32">
-        <v>700</v>
-      </c>
-      <c r="I15" s="32">
-        <v>200</v>
-      </c>
-      <c r="J15" s="32">
+      <c r="H15" s="31">
+        <v>700</v>
+      </c>
+      <c r="I15" s="31">
+        <v>200</v>
+      </c>
+      <c r="J15" s="31">
         <v>400</v>
       </c>
       <c r="K15" s="15"/>
@@ -1973,19 +1990,19 @@
       <c r="E16" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F16" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G16" s="33">
+      <c r="F16" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G16" s="32">
         <v>450</v>
       </c>
-      <c r="H16" s="32">
-        <v>700</v>
-      </c>
-      <c r="I16" s="32">
-        <v>200</v>
-      </c>
-      <c r="J16" s="32">
+      <c r="H16" s="31">
+        <v>700</v>
+      </c>
+      <c r="I16" s="31">
+        <v>200</v>
+      </c>
+      <c r="J16" s="31">
         <v>400</v>
       </c>
       <c r="K16" s="15"/>
@@ -2017,19 +2034,19 @@
       <c r="E17" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G17" s="33">
+      <c r="F17" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G17" s="32">
         <v>500</v>
       </c>
-      <c r="H17" s="32">
-        <v>700</v>
-      </c>
-      <c r="I17" s="32">
-        <v>200</v>
-      </c>
-      <c r="J17" s="32">
+      <c r="H17" s="31">
+        <v>700</v>
+      </c>
+      <c r="I17" s="31">
+        <v>200</v>
+      </c>
+      <c r="J17" s="31">
         <v>400</v>
       </c>
       <c r="K17" s="29"/>
@@ -2043,17 +2060,17 @@
         <f t="shared" si="0"/>
         <v>3500</v>
       </c>
-      <c r="P17" s="39"/>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P17" s="38"/>
+    </row>
+    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
         <v>13</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>119</v>
+        <v>31</v>
+      </c>
+      <c r="C18" s="72" t="s">
+        <v>127</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>23</v>
@@ -2061,43 +2078,43 @@
       <c r="E18" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F18" s="32">
+      <c r="F18" s="31">
         <v>1700</v>
       </c>
       <c r="G18" s="33">
         <v>550</v>
       </c>
-      <c r="H18" s="32">
-        <v>700</v>
-      </c>
-      <c r="I18" s="32">
-        <v>200</v>
-      </c>
-      <c r="J18" s="32">
-        <v>400</v>
-      </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="29"/>
+      <c r="H18" s="31">
+        <v>700</v>
+      </c>
+      <c r="I18" s="31">
+        <v>200</v>
+      </c>
+      <c r="J18" s="31">
+        <v>400</v>
+      </c>
+      <c r="K18" s="15"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="15"/>
       <c r="N18" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F18+G18)/21.75/8*1.5*K18+(F18+G18)/21.75/8*2*L18+(F18+G18)/21.75/8*3*M18,0)</f>
         <v>0</v>
       </c>
       <c r="O18" s="16">
-        <f t="shared" si="0"/>
+        <f>N18+F18+G18+H18+I18+J18</f>
         <v>3550</v>
       </c>
-      <c r="P18" s="39"/>
+      <c r="P18" s="51"/>
     </row>
     <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>14</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="17" t="s">
-        <v>41</v>
+        <v>32</v>
+      </c>
+      <c r="C19" s="70" t="s">
+        <v>127</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>23</v>
@@ -2105,40 +2122,40 @@
       <c r="E19" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G19" s="33">
+      <c r="F19" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G19" s="32">
         <v>550</v>
       </c>
-      <c r="H19" s="32">
-        <v>700</v>
-      </c>
-      <c r="I19" s="32">
-        <v>200</v>
-      </c>
-      <c r="J19" s="32">
-        <v>400</v>
-      </c>
-      <c r="K19" s="15"/>
+      <c r="H19" s="31">
+        <v>700</v>
+      </c>
+      <c r="I19" s="31">
+        <v>200</v>
+      </c>
+      <c r="J19" s="31">
+        <v>400</v>
+      </c>
+      <c r="K19" s="14"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
       <c r="N19" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F19+G19)/21.75/8*1.5*K19+(F19+G19)/21.75/8*2*L19+(F19+G19)/21.75/8*3*M19,0)</f>
         <v>0</v>
       </c>
       <c r="O19" s="16">
-        <f t="shared" si="0"/>
+        <f>N19+F19+G19+H19+I19+J19</f>
         <v>3550</v>
       </c>
-      <c r="P19" s="40"/>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P19" s="23"/>
+    </row>
+    <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A20" s="16">
         <v>15</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C20" s="17" t="s">
         <v>41</v>
@@ -2149,19 +2166,19 @@
       <c r="E20" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G20" s="33">
+      <c r="F20" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G20" s="32">
         <v>550</v>
       </c>
-      <c r="H20" s="32">
-        <v>700</v>
-      </c>
-      <c r="I20" s="32">
-        <v>200</v>
-      </c>
-      <c r="J20" s="32">
+      <c r="H20" s="31">
+        <v>700</v>
+      </c>
+      <c r="I20" s="31">
+        <v>200</v>
+      </c>
+      <c r="J20" s="31">
         <v>400</v>
       </c>
       <c r="K20" s="15"/>
@@ -2175,14 +2192,14 @@
         <f t="shared" si="0"/>
         <v>3550</v>
       </c>
-      <c r="P20" s="40"/>
+      <c r="P20" s="39"/>
     </row>
     <row r="21" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A21" s="16">
         <v>16</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C21" s="17" t="s">
         <v>41</v>
@@ -2193,19 +2210,19 @@
       <c r="E21" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G21" s="33">
-        <v>500</v>
-      </c>
-      <c r="H21" s="32">
-        <v>700</v>
-      </c>
-      <c r="I21" s="32">
-        <v>200</v>
-      </c>
-      <c r="J21" s="32">
+      <c r="F21" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G21" s="32">
+        <v>550</v>
+      </c>
+      <c r="H21" s="31">
+        <v>700</v>
+      </c>
+      <c r="I21" s="31">
+        <v>200</v>
+      </c>
+      <c r="J21" s="31">
         <v>400</v>
       </c>
       <c r="K21" s="15"/>
@@ -2217,60 +2234,60 @@
       </c>
       <c r="O21" s="16">
         <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-      <c r="P21" s="40"/>
+        <v>3550</v>
+      </c>
+      <c r="P21" s="39"/>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A22" s="16">
         <v>17</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>22</v>
+        <v>41</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G22" s="33">
-        <v>450</v>
-      </c>
-      <c r="H22" s="32">
-        <v>700</v>
-      </c>
-      <c r="I22" s="32">
-        <v>200</v>
-      </c>
-      <c r="J22" s="32">
+      <c r="F22" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G22" s="32">
         <v>500</v>
       </c>
-      <c r="K22" s="23"/>
-      <c r="L22" s="23"/>
-      <c r="M22" s="23"/>
+      <c r="H22" s="31">
+        <v>700</v>
+      </c>
+      <c r="I22" s="31">
+        <v>200</v>
+      </c>
+      <c r="J22" s="31">
+        <v>400</v>
+      </c>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15"/>
+      <c r="M22" s="15"/>
       <c r="N22" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O22" s="16">
         <f t="shared" si="0"/>
-        <v>3550</v>
-      </c>
-      <c r="P22" s="52"/>
+        <v>3500</v>
+      </c>
+      <c r="P22" s="39"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
         <v>18</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>22</v>
@@ -2281,20 +2298,20 @@
       <c r="E23" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G23" s="33">
-        <v>550</v>
-      </c>
-      <c r="H23" s="32">
-        <v>700</v>
-      </c>
-      <c r="I23" s="32">
-        <v>200</v>
-      </c>
-      <c r="J23" s="32">
-        <v>400</v>
+      <c r="F23" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G23" s="32">
+        <v>450</v>
+      </c>
+      <c r="H23" s="31">
+        <v>700</v>
+      </c>
+      <c r="I23" s="31">
+        <v>200</v>
+      </c>
+      <c r="J23" s="31">
+        <v>500</v>
       </c>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
@@ -2307,7 +2324,7 @@
         <f t="shared" si="0"/>
         <v>3550</v>
       </c>
-      <c r="P23" s="50"/>
+      <c r="P23" s="51"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" s="16">
@@ -2325,19 +2342,19 @@
       <c r="E24" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F24" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G24" s="33">
+      <c r="F24" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G24" s="32">
         <v>550</v>
       </c>
-      <c r="H24" s="32">
-        <v>700</v>
-      </c>
-      <c r="I24" s="32">
-        <v>200</v>
-      </c>
-      <c r="J24" s="32">
+      <c r="H24" s="31">
+        <v>700</v>
+      </c>
+      <c r="I24" s="31">
+        <v>200</v>
+      </c>
+      <c r="J24" s="31">
         <v>400</v>
       </c>
       <c r="K24" s="23"/>
@@ -2351,7 +2368,7 @@
         <f t="shared" si="0"/>
         <v>3550</v>
       </c>
-      <c r="P24" s="50"/>
+      <c r="P24" s="49"/>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A25" s="16">
@@ -2369,19 +2386,19 @@
       <c r="E25" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F25" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G25" s="33">
+      <c r="F25" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G25" s="32">
         <v>550</v>
       </c>
-      <c r="H25" s="32">
-        <v>700</v>
-      </c>
-      <c r="I25" s="32">
-        <v>200</v>
-      </c>
-      <c r="J25" s="32">
+      <c r="H25" s="31">
+        <v>700</v>
+      </c>
+      <c r="I25" s="31">
+        <v>200</v>
+      </c>
+      <c r="J25" s="31">
         <v>400</v>
       </c>
       <c r="K25" s="23"/>
@@ -2395,17 +2412,17 @@
         <f t="shared" si="0"/>
         <v>3550</v>
       </c>
-      <c r="P25" s="50"/>
+      <c r="P25" s="49"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" s="16">
         <v>21</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C26" s="17" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>26</v>
@@ -2413,19 +2430,19 @@
       <c r="E26" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G26" s="33">
-        <v>550</v>
-      </c>
-      <c r="H26" s="32">
-        <v>700</v>
-      </c>
-      <c r="I26" s="32">
-        <v>200</v>
-      </c>
-      <c r="J26" s="32">
+      <c r="F26" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G26" s="32">
+        <v>500</v>
+      </c>
+      <c r="H26" s="31">
+        <v>700</v>
+      </c>
+      <c r="I26" s="31">
+        <v>200</v>
+      </c>
+      <c r="J26" s="31">
         <v>400</v>
       </c>
       <c r="K26" s="23"/>
@@ -2437,19 +2454,19 @@
       </c>
       <c r="O26" s="16">
         <f t="shared" si="0"/>
-        <v>3550</v>
-      </c>
-      <c r="P26" s="50"/>
+        <v>3500</v>
+      </c>
+      <c r="P26" s="23"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" s="16">
         <v>22</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C27" s="17" t="s">
-        <v>51</v>
+        <v>52</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>26</v>
@@ -2457,19 +2474,19 @@
       <c r="E27" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F27" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G27" s="33">
-        <v>500</v>
-      </c>
-      <c r="H27" s="32">
-        <v>700</v>
-      </c>
-      <c r="I27" s="32">
-        <v>200</v>
-      </c>
-      <c r="J27" s="32">
+      <c r="F27" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G27" s="32">
+        <v>550</v>
+      </c>
+      <c r="H27" s="31">
+        <v>700</v>
+      </c>
+      <c r="I27" s="31">
+        <v>200</v>
+      </c>
+      <c r="J27" s="31">
         <v>400</v>
       </c>
       <c r="K27" s="23"/>
@@ -2481,19 +2498,19 @@
       </c>
       <c r="O27" s="16">
         <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-      <c r="P27" s="23"/>
+        <v>3550</v>
+      </c>
+      <c r="P27" s="49"/>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A28" s="16">
         <v>23</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C28" s="15" t="s">
-        <v>53</v>
+        <v>54</v>
+      </c>
+      <c r="C28" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>26</v>
@@ -2501,19 +2518,19 @@
       <c r="E28" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F28" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G28" s="33">
+      <c r="F28" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G28" s="32">
         <v>550</v>
       </c>
-      <c r="H28" s="32">
-        <v>700</v>
-      </c>
-      <c r="I28" s="32">
-        <v>200</v>
-      </c>
-      <c r="J28" s="32">
+      <c r="H28" s="31">
+        <v>700</v>
+      </c>
+      <c r="I28" s="31">
+        <v>200</v>
+      </c>
+      <c r="J28" s="31">
         <v>400</v>
       </c>
       <c r="K28" s="23"/>
@@ -2527,17 +2544,17 @@
         <f t="shared" si="0"/>
         <v>3550</v>
       </c>
-      <c r="P28" s="50"/>
+      <c r="P28" s="49"/>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A29" s="16">
         <v>24</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C29" s="26" t="s">
-        <v>55</v>
+        <v>56</v>
+      </c>
+      <c r="C29" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>26</v>
@@ -2545,19 +2562,19 @@
       <c r="E29" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F29" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G29" s="33">
-        <v>550</v>
-      </c>
-      <c r="H29" s="32">
-        <v>700</v>
-      </c>
-      <c r="I29" s="32">
-        <v>200</v>
-      </c>
-      <c r="J29" s="32">
+      <c r="F29" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G29" s="32">
+        <v>450</v>
+      </c>
+      <c r="H29" s="31">
+        <v>700</v>
+      </c>
+      <c r="I29" s="31">
+        <v>200</v>
+      </c>
+      <c r="J29" s="31">
         <v>400</v>
       </c>
       <c r="K29" s="23"/>
@@ -2569,19 +2586,19 @@
       </c>
       <c r="O29" s="16">
         <f t="shared" si="0"/>
-        <v>3550</v>
-      </c>
-      <c r="P29" s="50"/>
+        <v>3450</v>
+      </c>
+      <c r="P29" s="49"/>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A30" s="16">
         <v>25</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>56</v>
+        <v>71</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>26</v>
@@ -2589,33 +2606,33 @@
       <c r="E30" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F30" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G30" s="33">
-        <v>450</v>
-      </c>
-      <c r="H30" s="32">
-        <v>700</v>
-      </c>
-      <c r="I30" s="32">
-        <v>200</v>
-      </c>
-      <c r="J30" s="32">
-        <v>400</v>
-      </c>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
-      <c r="M30" s="23"/>
+      <c r="F30" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G30" s="32">
+        <v>550</v>
+      </c>
+      <c r="H30" s="31">
+        <v>700</v>
+      </c>
+      <c r="I30" s="31">
+        <v>200</v>
+      </c>
+      <c r="J30" s="31">
+        <v>400</v>
+      </c>
+      <c r="K30" s="14"/>
+      <c r="L30" s="35"/>
+      <c r="M30" s="15"/>
       <c r="N30" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F30+G30)/21.75/8*1.5*K30+(F30+G30)/21.75/8*2*L30+(F30+G30)/21.75/8*3*M30,0)</f>
         <v>0</v>
       </c>
       <c r="O30" s="16">
-        <f t="shared" si="0"/>
-        <v>3450</v>
-      </c>
-      <c r="P30" s="50"/>
+        <f>N30+F30+G30+H30+I30+J30</f>
+        <v>3550</v>
+      </c>
+      <c r="P30" s="49"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A31" s="16">
@@ -2633,19 +2650,19 @@
       <c r="E31" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F31" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G31" s="33">
+      <c r="F31" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G31" s="32">
         <v>550</v>
       </c>
-      <c r="H31" s="32">
-        <v>700</v>
-      </c>
-      <c r="I31" s="32">
-        <v>200</v>
-      </c>
-      <c r="J31" s="32">
+      <c r="H31" s="31">
+        <v>700</v>
+      </c>
+      <c r="I31" s="31">
+        <v>200</v>
+      </c>
+      <c r="J31" s="31">
         <v>400</v>
       </c>
       <c r="K31" s="23"/>
@@ -2659,7 +2676,7 @@
         <f t="shared" si="0"/>
         <v>3550</v>
       </c>
-      <c r="P31" s="50"/>
+      <c r="P31" s="49"/>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A32" s="16">
@@ -2677,19 +2694,19 @@
       <c r="E32" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F32" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G32" s="33">
+      <c r="F32" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G32" s="32">
         <v>450</v>
       </c>
-      <c r="H32" s="32">
-        <v>700</v>
-      </c>
-      <c r="I32" s="32">
-        <v>200</v>
-      </c>
-      <c r="J32" s="32">
+      <c r="H32" s="31">
+        <v>700</v>
+      </c>
+      <c r="I32" s="31">
+        <v>200</v>
+      </c>
+      <c r="J32" s="31">
         <v>400</v>
       </c>
       <c r="K32" s="23"/>
@@ -2703,14 +2720,14 @@
         <f t="shared" si="0"/>
         <v>3450</v>
       </c>
-      <c r="P32" s="50"/>
+      <c r="P32" s="49"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A33" s="16">
         <v>28</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>22</v>
@@ -2721,40 +2738,40 @@
       <c r="E33" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F33" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G33" s="33">
-        <v>450</v>
-      </c>
-      <c r="H33" s="32">
-        <v>700</v>
-      </c>
-      <c r="I33" s="32">
-        <v>200</v>
-      </c>
-      <c r="J33" s="32">
-        <v>400</v>
-      </c>
-      <c r="K33" s="23"/>
-      <c r="L33" s="23"/>
-      <c r="M33" s="23"/>
+      <c r="F33" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G33" s="32">
+        <v>550</v>
+      </c>
+      <c r="H33" s="31">
+        <v>700</v>
+      </c>
+      <c r="I33" s="31">
+        <v>200</v>
+      </c>
+      <c r="J33" s="31">
+        <v>400</v>
+      </c>
+      <c r="K33" s="14"/>
+      <c r="L33" s="35"/>
+      <c r="M33" s="15"/>
       <c r="N33" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F33+G33)/21.75/8*1.5*K33+(F33+G33)/21.75/8*2*L33+(F33+G33)/21.75/8*3*M33,0)</f>
         <v>0</v>
       </c>
       <c r="O33" s="16">
-        <f t="shared" si="0"/>
-        <v>3450</v>
-      </c>
-      <c r="P33" s="50"/>
+        <f>N33+F33+G33+H33+I33+J33</f>
+        <v>3550</v>
+      </c>
+      <c r="P33" s="39"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A34" s="16">
         <v>29</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C34" s="17" t="s">
         <v>22</v>
@@ -2765,22 +2782,22 @@
       <c r="E34" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F34" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G34" s="33">
-        <v>550</v>
-      </c>
-      <c r="H34" s="32">
-        <v>700</v>
-      </c>
-      <c r="I34" s="32">
-        <v>200</v>
-      </c>
-      <c r="J34" s="32">
-        <v>400</v>
-      </c>
-      <c r="K34" s="29"/>
+      <c r="F34" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G34" s="32">
+        <v>450</v>
+      </c>
+      <c r="H34" s="31">
+        <v>700</v>
+      </c>
+      <c r="I34" s="31">
+        <v>200</v>
+      </c>
+      <c r="J34" s="31">
+        <v>400</v>
+      </c>
+      <c r="K34" s="23"/>
       <c r="L34" s="23"/>
       <c r="M34" s="23"/>
       <c r="N34" s="16">
@@ -2789,16 +2806,16 @@
       </c>
       <c r="O34" s="16">
         <f t="shared" si="0"/>
-        <v>3550</v>
-      </c>
-      <c r="P34" s="23"/>
+        <v>3450</v>
+      </c>
+      <c r="P34" s="49"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A35" s="16">
         <v>30</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C35" s="17" t="s">
         <v>22</v>
@@ -2809,22 +2826,22 @@
       <c r="E35" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F35" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G35" s="33">
+      <c r="F35" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G35" s="32">
         <v>550</v>
       </c>
-      <c r="H35" s="32">
-        <v>700</v>
-      </c>
-      <c r="I35" s="32">
-        <v>200</v>
-      </c>
-      <c r="J35" s="32">
-        <v>400</v>
-      </c>
-      <c r="K35" s="23"/>
+      <c r="H35" s="31">
+        <v>700</v>
+      </c>
+      <c r="I35" s="31">
+        <v>200</v>
+      </c>
+      <c r="J35" s="31">
+        <v>400</v>
+      </c>
+      <c r="K35" s="29"/>
       <c r="L35" s="23"/>
       <c r="M35" s="23"/>
       <c r="N35" s="16">
@@ -2835,14 +2852,14 @@
         <f t="shared" si="0"/>
         <v>3550</v>
       </c>
-      <c r="P35" s="50"/>
+      <c r="P35" s="23"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
         <v>31</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C36" s="17" t="s">
         <v>22</v>
@@ -2853,19 +2870,19 @@
       <c r="E36" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F36" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G36" s="33">
-        <v>500</v>
-      </c>
-      <c r="H36" s="32">
-        <v>700</v>
-      </c>
-      <c r="I36" s="32">
-        <v>200</v>
-      </c>
-      <c r="J36" s="32">
+      <c r="F36" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G36" s="32">
+        <v>550</v>
+      </c>
+      <c r="H36" s="31">
+        <v>700</v>
+      </c>
+      <c r="I36" s="31">
+        <v>200</v>
+      </c>
+      <c r="J36" s="31">
         <v>400</v>
       </c>
       <c r="K36" s="23"/>
@@ -2877,16 +2894,16 @@
       </c>
       <c r="O36" s="16">
         <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-      <c r="P36" s="50"/>
+        <v>3550</v>
+      </c>
+      <c r="P36" s="49"/>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A37" s="16">
         <v>32</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C37" s="17" t="s">
         <v>22</v>
@@ -2897,38 +2914,40 @@
       <c r="E37" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F37" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G37" s="33">
-        <v>450</v>
-      </c>
-      <c r="H37" s="32">
-        <v>700</v>
-      </c>
-      <c r="I37" s="32"/>
-      <c r="J37" s="32">
+      <c r="F37" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G37" s="32">
         <v>500</v>
       </c>
-      <c r="K37" s="14"/>
-      <c r="L37" s="36"/>
-      <c r="M37" s="15"/>
+      <c r="H37" s="31">
+        <v>700</v>
+      </c>
+      <c r="I37" s="31">
+        <v>200</v>
+      </c>
+      <c r="J37" s="31">
+        <v>400</v>
+      </c>
+      <c r="K37" s="23"/>
+      <c r="L37" s="23"/>
+      <c r="M37" s="23"/>
       <c r="N37" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O37" s="16">
-        <f t="shared" ref="O37:O67" si="2">N37+F37+G37+H37+I37+J37</f>
-        <v>3350</v>
-      </c>
-      <c r="P37" s="50"/>
+        <f t="shared" si="0"/>
+        <v>3500</v>
+      </c>
+      <c r="P37" s="49"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A38" s="16">
         <v>33</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C38" s="17" t="s">
         <v>22</v>
@@ -2939,40 +2958,38 @@
       <c r="E38" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F38" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G38" s="33">
+      <c r="F38" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G38" s="32">
         <v>450</v>
       </c>
-      <c r="H38" s="32">
-        <v>700</v>
-      </c>
-      <c r="I38" s="32">
-        <v>200</v>
-      </c>
-      <c r="J38" s="32">
-        <v>400</v>
+      <c r="H38" s="31">
+        <v>700</v>
+      </c>
+      <c r="I38" s="31"/>
+      <c r="J38" s="31">
+        <v>500</v>
       </c>
       <c r="K38" s="14"/>
-      <c r="L38" s="36"/>
+      <c r="L38" s="35"/>
       <c r="M38" s="15"/>
       <c r="N38" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O38" s="16">
-        <f t="shared" si="2"/>
-        <v>3450</v>
-      </c>
-      <c r="P38" s="50"/>
+        <f t="shared" ref="O38:O68" si="2">N38+F38+G38+H38+I38+J38</f>
+        <v>3350</v>
+      </c>
+      <c r="P38" s="49"/>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A39" s="16">
         <v>34</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C39" s="17" t="s">
         <v>22</v>
@@ -2983,23 +3000,23 @@
       <c r="E39" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F39" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G39" s="33">
+      <c r="F39" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G39" s="32">
         <v>450</v>
       </c>
-      <c r="H39" s="32">
-        <v>700</v>
-      </c>
-      <c r="I39" s="32">
-        <v>200</v>
-      </c>
-      <c r="J39" s="32">
+      <c r="H39" s="31">
+        <v>700</v>
+      </c>
+      <c r="I39" s="31">
+        <v>200</v>
+      </c>
+      <c r="J39" s="31">
         <v>400</v>
       </c>
       <c r="K39" s="14"/>
-      <c r="L39" s="36"/>
+      <c r="L39" s="35"/>
       <c r="M39" s="15"/>
       <c r="N39" s="16">
         <f t="shared" si="1"/>
@@ -3009,17 +3026,17 @@
         <f t="shared" si="2"/>
         <v>3450</v>
       </c>
-      <c r="P39" s="50"/>
+      <c r="P39" s="49"/>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A40" s="16">
         <v>35</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>66</v>
-      </c>
-      <c r="C40" s="26" t="s">
-        <v>55</v>
+        <v>65</v>
+      </c>
+      <c r="C40" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>26</v>
@@ -3027,23 +3044,23 @@
       <c r="E40" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F40" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G40" s="33">
-        <v>550</v>
-      </c>
-      <c r="H40" s="32">
-        <v>700</v>
-      </c>
-      <c r="I40" s="32">
-        <v>200</v>
-      </c>
-      <c r="J40" s="32">
+      <c r="F40" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G40" s="32">
+        <v>450</v>
+      </c>
+      <c r="H40" s="31">
+        <v>700</v>
+      </c>
+      <c r="I40" s="31">
+        <v>200</v>
+      </c>
+      <c r="J40" s="31">
         <v>400</v>
       </c>
       <c r="K40" s="14"/>
-      <c r="L40" s="36"/>
+      <c r="L40" s="35"/>
       <c r="M40" s="15"/>
       <c r="N40" s="16">
         <f t="shared" si="1"/>
@@ -3051,19 +3068,19 @@
       </c>
       <c r="O40" s="16">
         <f t="shared" si="2"/>
-        <v>3550</v>
-      </c>
-      <c r="P40" s="50"/>
+        <v>3450</v>
+      </c>
+      <c r="P40" s="49"/>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A41" s="16">
         <v>36</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>67</v>
-      </c>
-      <c r="C41" s="17" t="s">
-        <v>22</v>
+        <v>66</v>
+      </c>
+      <c r="C41" s="26" t="s">
+        <v>55</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>26</v>
@@ -3071,23 +3088,23 @@
       <c r="E41" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F41" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G41" s="33">
+      <c r="F41" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G41" s="32">
         <v>550</v>
       </c>
-      <c r="H41" s="32">
-        <v>700</v>
-      </c>
-      <c r="I41" s="32">
-        <v>200</v>
-      </c>
-      <c r="J41" s="32">
+      <c r="H41" s="31">
+        <v>700</v>
+      </c>
+      <c r="I41" s="31">
+        <v>200</v>
+      </c>
+      <c r="J41" s="31">
         <v>400</v>
       </c>
       <c r="K41" s="14"/>
-      <c r="L41" s="36"/>
+      <c r="L41" s="35"/>
       <c r="M41" s="15"/>
       <c r="N41" s="16">
         <f t="shared" si="1"/>
@@ -3097,14 +3114,14 @@
         <f t="shared" si="2"/>
         <v>3550</v>
       </c>
-      <c r="P41" s="50"/>
+      <c r="P41" s="49"/>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A42" s="16">
         <v>37</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>22</v>
@@ -3115,23 +3132,23 @@
       <c r="E42" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F42" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G42" s="33">
-        <v>450</v>
-      </c>
-      <c r="H42" s="32">
-        <v>700</v>
-      </c>
-      <c r="I42" s="32">
-        <v>200</v>
-      </c>
-      <c r="J42" s="32">
+      <c r="F42" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G42" s="32">
+        <v>550</v>
+      </c>
+      <c r="H42" s="31">
+        <v>700</v>
+      </c>
+      <c r="I42" s="31">
+        <v>200</v>
+      </c>
+      <c r="J42" s="31">
         <v>400</v>
       </c>
       <c r="K42" s="14"/>
-      <c r="L42" s="36"/>
+      <c r="L42" s="35"/>
       <c r="M42" s="15"/>
       <c r="N42" s="16">
         <f t="shared" si="1"/>
@@ -3139,19 +3156,19 @@
       </c>
       <c r="O42" s="16">
         <f t="shared" si="2"/>
-        <v>3450</v>
-      </c>
-      <c r="P42" s="50"/>
+        <v>3550</v>
+      </c>
+      <c r="P42" s="49"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>38</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>69</v>
-      </c>
-      <c r="C43" s="15" t="s">
-        <v>53</v>
+        <v>87</v>
+      </c>
+      <c r="C43" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D43" s="14" t="s">
         <v>26</v>
@@ -3159,40 +3176,40 @@
       <c r="E43" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F43" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G43" s="33">
+      <c r="F43" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G43" s="32">
         <v>500</v>
       </c>
-      <c r="H43" s="32">
-        <v>700</v>
-      </c>
-      <c r="I43" s="32">
-        <v>200</v>
-      </c>
-      <c r="J43" s="32">
-        <v>400</v>
-      </c>
-      <c r="K43" s="14"/>
-      <c r="L43" s="36"/>
+      <c r="H43" s="31">
+        <v>700</v>
+      </c>
+      <c r="I43" s="31">
+        <v>200</v>
+      </c>
+      <c r="J43" s="31">
+        <v>400</v>
+      </c>
+      <c r="K43" s="15"/>
+      <c r="L43" s="33"/>
       <c r="M43" s="15"/>
       <c r="N43" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F43+G43)/21.75/8*1.5*K43+(F43+G43)/21.75/8*2*L43+(F43+G43)/21.75/8*3*M43,0)</f>
         <v>0</v>
       </c>
       <c r="O43" s="16">
-        <f t="shared" si="2"/>
+        <f>N43+F43+G43+H43+I43+J43</f>
         <v>3500</v>
       </c>
-      <c r="P43" s="50"/>
+      <c r="P43" s="46"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
         <v>39</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C44" s="17" t="s">
         <v>22</v>
@@ -3203,23 +3220,23 @@
       <c r="E44" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F44" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G44" s="33">
-        <v>550</v>
-      </c>
-      <c r="H44" s="32">
-        <v>700</v>
-      </c>
-      <c r="I44" s="32">
-        <v>200</v>
-      </c>
-      <c r="J44" s="32">
+      <c r="F44" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G44" s="32">
+        <v>450</v>
+      </c>
+      <c r="H44" s="31">
+        <v>700</v>
+      </c>
+      <c r="I44" s="31">
+        <v>200</v>
+      </c>
+      <c r="J44" s="31">
         <v>400</v>
       </c>
       <c r="K44" s="14"/>
-      <c r="L44" s="36"/>
+      <c r="L44" s="35"/>
       <c r="M44" s="15"/>
       <c r="N44" s="16">
         <f t="shared" si="1"/>
@@ -3227,19 +3244,19 @@
       </c>
       <c r="O44" s="16">
         <f t="shared" si="2"/>
-        <v>3550</v>
-      </c>
-      <c r="P44" s="50"/>
+        <v>3450</v>
+      </c>
+      <c r="P44" s="49"/>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A45" s="16">
         <v>40</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>71</v>
-      </c>
-      <c r="C45" s="17" t="s">
-        <v>48</v>
+        <v>69</v>
+      </c>
+      <c r="C45" s="15" t="s">
+        <v>53</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>26</v>
@@ -3247,23 +3264,23 @@
       <c r="E45" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F45" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G45" s="33">
-        <v>550</v>
-      </c>
-      <c r="H45" s="32">
-        <v>700</v>
-      </c>
-      <c r="I45" s="32">
-        <v>200</v>
-      </c>
-      <c r="J45" s="32">
+      <c r="F45" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G45" s="32">
+        <v>500</v>
+      </c>
+      <c r="H45" s="31">
+        <v>700</v>
+      </c>
+      <c r="I45" s="31">
+        <v>200</v>
+      </c>
+      <c r="J45" s="31">
         <v>400</v>
       </c>
       <c r="K45" s="14"/>
-      <c r="L45" s="36"/>
+      <c r="L45" s="35"/>
       <c r="M45" s="15"/>
       <c r="N45" s="16">
         <f t="shared" si="1"/>
@@ -3271,16 +3288,16 @@
       </c>
       <c r="O45" s="16">
         <f t="shared" si="2"/>
-        <v>3550</v>
-      </c>
-      <c r="P45" s="50"/>
+        <v>3500</v>
+      </c>
+      <c r="P45" s="49"/>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A46" s="16">
         <v>41</v>
       </c>
-      <c r="B46" s="70" t="s">
-        <v>128</v>
+      <c r="B46" s="14" t="s">
+        <v>70</v>
       </c>
       <c r="C46" s="17" t="s">
         <v>22</v>
@@ -3291,23 +3308,23 @@
       <c r="E46" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F46" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G46" s="33">
+      <c r="F46" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G46" s="32">
         <v>550</v>
       </c>
-      <c r="H46" s="32">
-        <v>700</v>
-      </c>
-      <c r="I46" s="32">
-        <v>200</v>
-      </c>
-      <c r="J46" s="32">
+      <c r="H46" s="31">
+        <v>700</v>
+      </c>
+      <c r="I46" s="31">
+        <v>200</v>
+      </c>
+      <c r="J46" s="31">
         <v>400</v>
       </c>
       <c r="K46" s="14"/>
-      <c r="L46" s="36"/>
+      <c r="L46" s="35"/>
       <c r="M46" s="15"/>
       <c r="N46" s="16">
         <f t="shared" si="1"/>
@@ -3317,17 +3334,17 @@
         <f t="shared" si="2"/>
         <v>3550</v>
       </c>
-      <c r="P46" s="40"/>
+      <c r="P46" s="49"/>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A47" s="16">
         <v>42</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>22</v>
+        <v>48</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>26</v>
@@ -3335,40 +3352,40 @@
       <c r="E47" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F47" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G47" s="33">
+      <c r="F47" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G47" s="32">
         <v>550</v>
       </c>
-      <c r="H47" s="32">
-        <v>700</v>
-      </c>
-      <c r="I47" s="32">
-        <v>200</v>
-      </c>
-      <c r="J47" s="32">
-        <v>400</v>
-      </c>
-      <c r="K47" s="14"/>
-      <c r="L47" s="36"/>
-      <c r="M47" s="15"/>
+      <c r="H47" s="31">
+        <v>700</v>
+      </c>
+      <c r="I47" s="31">
+        <v>200</v>
+      </c>
+      <c r="J47" s="31">
+        <v>400</v>
+      </c>
+      <c r="K47" s="23"/>
+      <c r="L47" s="23"/>
+      <c r="M47" s="23"/>
       <c r="N47" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F47+G47)/21.75/8*1.5*K47+(F47+G47)/21.75/8*2*L47+(F47+G47)/21.75/8*3*M47,0)</f>
         <v>0</v>
       </c>
       <c r="O47" s="16">
-        <f t="shared" si="2"/>
+        <f>N47+F47+G47+H47+I47+J47</f>
         <v>3550</v>
       </c>
-      <c r="P47" s="40"/>
+      <c r="P47" s="49"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>43</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>73</v>
+      <c r="B48" s="57" t="s">
+        <v>126</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>22</v>
@@ -3379,23 +3396,23 @@
       <c r="E48" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F48" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G48" s="33">
-        <v>500</v>
-      </c>
-      <c r="H48" s="32">
-        <v>700</v>
-      </c>
-      <c r="I48" s="32">
-        <v>200</v>
-      </c>
-      <c r="J48" s="32">
+      <c r="F48" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G48" s="32">
+        <v>550</v>
+      </c>
+      <c r="H48" s="31">
+        <v>700</v>
+      </c>
+      <c r="I48" s="31">
+        <v>200</v>
+      </c>
+      <c r="J48" s="31">
         <v>400</v>
       </c>
       <c r="K48" s="14"/>
-      <c r="L48" s="36"/>
+      <c r="L48" s="35"/>
       <c r="M48" s="15"/>
       <c r="N48" s="16">
         <f t="shared" si="1"/>
@@ -3403,19 +3420,19 @@
       </c>
       <c r="O48" s="16">
         <f t="shared" si="2"/>
-        <v>3500</v>
-      </c>
-      <c r="P48" s="40"/>
+        <v>3550</v>
+      </c>
+      <c r="P48" s="39"/>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A49" s="16">
         <v>44</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C49" s="24" t="s">
-        <v>75</v>
+        <v>73</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>26</v>
@@ -3423,23 +3440,23 @@
       <c r="E49" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F49" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G49" s="33">
-        <v>550</v>
-      </c>
-      <c r="H49" s="32">
-        <v>700</v>
-      </c>
-      <c r="I49" s="32">
-        <v>200</v>
-      </c>
-      <c r="J49" s="32">
+      <c r="F49" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G49" s="32">
+        <v>500</v>
+      </c>
+      <c r="H49" s="31">
+        <v>700</v>
+      </c>
+      <c r="I49" s="31">
+        <v>200</v>
+      </c>
+      <c r="J49" s="31">
         <v>400</v>
       </c>
       <c r="K49" s="14"/>
-      <c r="L49" s="36"/>
+      <c r="L49" s="35"/>
       <c r="M49" s="15"/>
       <c r="N49" s="16">
         <f t="shared" si="1"/>
@@ -3447,19 +3464,19 @@
       </c>
       <c r="O49" s="16">
         <f t="shared" si="2"/>
-        <v>3550</v>
-      </c>
-      <c r="P49" s="40"/>
+        <v>3500</v>
+      </c>
+      <c r="P49" s="39"/>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A50" s="16">
         <v>45</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>76</v>
-      </c>
-      <c r="C50" s="17" t="s">
-        <v>22</v>
+        <v>74</v>
+      </c>
+      <c r="C50" s="24" t="s">
+        <v>75</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>26</v>
@@ -3467,23 +3484,23 @@
       <c r="E50" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F50" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G50" s="33">
-        <v>400</v>
-      </c>
-      <c r="H50" s="32">
-        <v>700</v>
-      </c>
-      <c r="I50" s="32">
-        <v>200</v>
-      </c>
-      <c r="J50" s="32">
+      <c r="F50" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G50" s="32">
+        <v>550</v>
+      </c>
+      <c r="H50" s="31">
+        <v>700</v>
+      </c>
+      <c r="I50" s="31">
+        <v>200</v>
+      </c>
+      <c r="J50" s="31">
         <v>400</v>
       </c>
       <c r="K50" s="14"/>
-      <c r="L50" s="36"/>
+      <c r="L50" s="35"/>
       <c r="M50" s="15"/>
       <c r="N50" s="16">
         <f t="shared" si="1"/>
@@ -3491,19 +3508,19 @@
       </c>
       <c r="O50" s="16">
         <f t="shared" si="2"/>
-        <v>3400</v>
-      </c>
-      <c r="P50" s="40"/>
+        <v>3550</v>
+      </c>
+      <c r="P50" s="39"/>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A51" s="16">
         <v>46</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>77</v>
-      </c>
-      <c r="C51" s="44" t="s">
-        <v>123</v>
+        <v>76</v>
+      </c>
+      <c r="C51" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>26</v>
@@ -3511,23 +3528,23 @@
       <c r="E51" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F51" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G51" s="33">
-        <v>400</v>
-      </c>
-      <c r="H51" s="32">
-        <v>700</v>
-      </c>
-      <c r="I51" s="32">
-        <v>200</v>
-      </c>
-      <c r="J51" s="32">
+      <c r="F51" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G51" s="32">
+        <v>400</v>
+      </c>
+      <c r="H51" s="31">
+        <v>700</v>
+      </c>
+      <c r="I51" s="31">
+        <v>200</v>
+      </c>
+      <c r="J51" s="31">
         <v>400</v>
       </c>
       <c r="K51" s="14"/>
-      <c r="L51" s="36"/>
+      <c r="L51" s="35"/>
       <c r="M51" s="15"/>
       <c r="N51" s="16">
         <f t="shared" si="1"/>
@@ -3537,17 +3554,17 @@
         <f t="shared" si="2"/>
         <v>3400</v>
       </c>
-      <c r="P51" s="40"/>
+      <c r="P51" s="39"/>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A52" s="16">
         <v>47</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>78</v>
-      </c>
-      <c r="C52" s="17" t="s">
-        <v>22</v>
+        <v>77</v>
+      </c>
+      <c r="C52" s="43" t="s">
+        <v>121</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>26</v>
@@ -3555,23 +3572,23 @@
       <c r="E52" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F52" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G52" s="33">
-        <v>450</v>
-      </c>
-      <c r="H52" s="32">
-        <v>700</v>
-      </c>
-      <c r="I52" s="32">
-        <v>200</v>
-      </c>
-      <c r="J52" s="32">
-        <v>500</v>
-      </c>
-      <c r="K52" s="15"/>
-      <c r="L52" s="34"/>
+      <c r="F52" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G52" s="32">
+        <v>400</v>
+      </c>
+      <c r="H52" s="31">
+        <v>700</v>
+      </c>
+      <c r="I52" s="31">
+        <v>200</v>
+      </c>
+      <c r="J52" s="31">
+        <v>400</v>
+      </c>
+      <c r="K52" s="14"/>
+      <c r="L52" s="35"/>
       <c r="M52" s="15"/>
       <c r="N52" s="16">
         <f t="shared" si="1"/>
@@ -3579,16 +3596,16 @@
       </c>
       <c r="O52" s="16">
         <f t="shared" si="2"/>
-        <v>3550</v>
-      </c>
-      <c r="P52" s="46"/>
+        <v>3400</v>
+      </c>
+      <c r="P52" s="39"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
         <v>48</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C53" s="17" t="s">
         <v>22</v>
@@ -3599,23 +3616,23 @@
       <c r="E53" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F53" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G53" s="33">
+      <c r="F53" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G53" s="32">
         <v>450</v>
       </c>
-      <c r="H53" s="32">
-        <v>700</v>
-      </c>
-      <c r="I53" s="32">
-        <v>200</v>
-      </c>
-      <c r="J53" s="32">
-        <v>400</v>
+      <c r="H53" s="31">
+        <v>700</v>
+      </c>
+      <c r="I53" s="31">
+        <v>200</v>
+      </c>
+      <c r="J53" s="31">
+        <v>500</v>
       </c>
       <c r="K53" s="15"/>
-      <c r="L53" s="34"/>
+      <c r="L53" s="33"/>
       <c r="M53" s="15"/>
       <c r="N53" s="16">
         <f t="shared" si="1"/>
@@ -3623,16 +3640,16 @@
       </c>
       <c r="O53" s="16">
         <f t="shared" si="2"/>
-        <v>3450</v>
-      </c>
-      <c r="P53" s="47"/>
+        <v>3550</v>
+      </c>
+      <c r="P53" s="45"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
         <v>49</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C54" s="17" t="s">
         <v>22</v>
@@ -3643,23 +3660,23 @@
       <c r="E54" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F54" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G54" s="33">
-        <v>550</v>
-      </c>
-      <c r="H54" s="32">
-        <v>700</v>
-      </c>
-      <c r="I54" s="32">
-        <v>200</v>
-      </c>
-      <c r="J54" s="32">
+      <c r="F54" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G54" s="32">
+        <v>450</v>
+      </c>
+      <c r="H54" s="31">
+        <v>700</v>
+      </c>
+      <c r="I54" s="31">
+        <v>200</v>
+      </c>
+      <c r="J54" s="31">
         <v>400</v>
       </c>
       <c r="K54" s="15"/>
-      <c r="L54" s="34"/>
+      <c r="L54" s="33"/>
       <c r="M54" s="15"/>
       <c r="N54" s="16">
         <f t="shared" si="1"/>
@@ -3667,19 +3684,19 @@
       </c>
       <c r="O54" s="16">
         <f t="shared" si="2"/>
-        <v>3550</v>
-      </c>
-      <c r="P54" s="51"/>
+        <v>3450</v>
+      </c>
+      <c r="P54" s="46"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
         <v>50</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C55" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
+      </c>
+      <c r="C55" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>26</v>
@@ -3687,23 +3704,23 @@
       <c r="E55" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F55" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G55" s="33">
+      <c r="F55" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G55" s="32">
         <v>550</v>
       </c>
-      <c r="H55" s="32">
-        <v>700</v>
-      </c>
-      <c r="I55" s="32">
-        <v>200</v>
-      </c>
-      <c r="J55" s="32">
+      <c r="H55" s="31">
+        <v>700</v>
+      </c>
+      <c r="I55" s="31">
+        <v>200</v>
+      </c>
+      <c r="J55" s="31">
         <v>400</v>
       </c>
       <c r="K55" s="15"/>
-      <c r="L55" s="34"/>
+      <c r="L55" s="33"/>
       <c r="M55" s="15"/>
       <c r="N55" s="16">
         <f t="shared" si="1"/>
@@ -3713,17 +3730,17 @@
         <f t="shared" si="2"/>
         <v>3550</v>
       </c>
-      <c r="P55" s="47"/>
+      <c r="P55" s="50"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>51</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>83</v>
-      </c>
-      <c r="C56" s="17" t="s">
-        <v>22</v>
+        <v>81</v>
+      </c>
+      <c r="C56" s="26" t="s">
+        <v>82</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>26</v>
@@ -3731,23 +3748,23 @@
       <c r="E56" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F56" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G56" s="33">
+      <c r="F56" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G56" s="32">
         <v>550</v>
       </c>
-      <c r="H56" s="32">
-        <v>700</v>
-      </c>
-      <c r="I56" s="32">
-        <v>200</v>
-      </c>
-      <c r="J56" s="32">
+      <c r="H56" s="31">
+        <v>700</v>
+      </c>
+      <c r="I56" s="31">
+        <v>200</v>
+      </c>
+      <c r="J56" s="31">
         <v>400</v>
       </c>
       <c r="K56" s="15"/>
-      <c r="L56" s="34"/>
+      <c r="L56" s="33"/>
       <c r="M56" s="15"/>
       <c r="N56" s="16">
         <f t="shared" si="1"/>
@@ -3757,14 +3774,14 @@
         <f t="shared" si="2"/>
         <v>3550</v>
       </c>
-      <c r="P56" s="47"/>
+      <c r="P56" s="46"/>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A57" s="16">
         <v>52</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C57" s="17" t="s">
         <v>22</v>
@@ -3775,23 +3792,23 @@
       <c r="E57" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F57" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G57" s="33">
+      <c r="F57" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G57" s="32">
         <v>550</v>
       </c>
-      <c r="H57" s="32">
-        <v>700</v>
-      </c>
-      <c r="I57" s="32">
-        <v>200</v>
-      </c>
-      <c r="J57" s="32">
+      <c r="H57" s="31">
+        <v>700</v>
+      </c>
+      <c r="I57" s="31">
+        <v>200</v>
+      </c>
+      <c r="J57" s="31">
         <v>400</v>
       </c>
       <c r="K57" s="15"/>
-      <c r="L57" s="34"/>
+      <c r="L57" s="33"/>
       <c r="M57" s="15"/>
       <c r="N57" s="16">
         <f t="shared" si="1"/>
@@ -3801,14 +3818,14 @@
         <f t="shared" si="2"/>
         <v>3550</v>
       </c>
-      <c r="P57" s="47"/>
+      <c r="P57" s="46"/>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A58" s="16">
         <v>53</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C58" s="17" t="s">
         <v>22</v>
@@ -3819,23 +3836,23 @@
       <c r="E58" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F58" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G58" s="33">
+      <c r="F58" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G58" s="32">
         <v>550</v>
       </c>
-      <c r="H58" s="32">
-        <v>700</v>
-      </c>
-      <c r="I58" s="32">
-        <v>200</v>
-      </c>
-      <c r="J58" s="32">
+      <c r="H58" s="31">
+        <v>700</v>
+      </c>
+      <c r="I58" s="31">
+        <v>200</v>
+      </c>
+      <c r="J58" s="31">
         <v>400</v>
       </c>
       <c r="K58" s="15"/>
-      <c r="L58" s="34"/>
+      <c r="L58" s="33"/>
       <c r="M58" s="15"/>
       <c r="N58" s="16">
         <f t="shared" si="1"/>
@@ -3845,14 +3862,14 @@
         <f t="shared" si="2"/>
         <v>3550</v>
       </c>
-      <c r="P58" s="48"/>
+      <c r="P58" s="46"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
         <v>54</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C59" s="17" t="s">
         <v>22</v>
@@ -3863,23 +3880,23 @@
       <c r="E59" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F59" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G59" s="33">
+      <c r="F59" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G59" s="32">
         <v>550</v>
       </c>
-      <c r="H59" s="32">
-        <v>700</v>
-      </c>
-      <c r="I59" s="32">
-        <v>200</v>
-      </c>
-      <c r="J59" s="32">
+      <c r="H59" s="31">
+        <v>700</v>
+      </c>
+      <c r="I59" s="31">
+        <v>200</v>
+      </c>
+      <c r="J59" s="31">
         <v>400</v>
       </c>
       <c r="K59" s="15"/>
-      <c r="L59" s="34"/>
+      <c r="L59" s="33"/>
       <c r="M59" s="15"/>
       <c r="N59" s="16">
         <f t="shared" si="1"/>
@@ -3889,14 +3906,14 @@
         <f t="shared" si="2"/>
         <v>3550</v>
       </c>
-      <c r="P59" s="49"/>
+      <c r="P59" s="47"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>55</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>22</v>
@@ -3907,23 +3924,23 @@
       <c r="E60" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F60" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G60" s="33">
-        <v>500</v>
-      </c>
-      <c r="H60" s="32">
-        <v>700</v>
-      </c>
-      <c r="I60" s="32">
-        <v>200</v>
-      </c>
-      <c r="J60" s="32">
+      <c r="F60" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G60" s="32">
+        <v>550</v>
+      </c>
+      <c r="H60" s="31">
+        <v>700</v>
+      </c>
+      <c r="I60" s="31">
+        <v>200</v>
+      </c>
+      <c r="J60" s="31">
         <v>400</v>
       </c>
       <c r="K60" s="15"/>
-      <c r="L60" s="34"/>
+      <c r="L60" s="33"/>
       <c r="M60" s="15"/>
       <c r="N60" s="16">
         <f t="shared" si="1"/>
@@ -3931,9 +3948,9 @@
       </c>
       <c r="O60" s="16">
         <f t="shared" si="2"/>
-        <v>3500</v>
-      </c>
-      <c r="P60" s="47"/>
+        <v>3550</v>
+      </c>
+      <c r="P60" s="48"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A61" s="16">
@@ -3951,23 +3968,23 @@
       <c r="E61" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F61" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G61" s="33">
+      <c r="F61" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G61" s="32">
         <v>500</v>
       </c>
-      <c r="H61" s="32">
-        <v>700</v>
-      </c>
-      <c r="I61" s="32">
-        <v>200</v>
-      </c>
-      <c r="J61" s="32">
+      <c r="H61" s="31">
+        <v>700</v>
+      </c>
+      <c r="I61" s="31">
+        <v>200</v>
+      </c>
+      <c r="J61" s="31">
         <v>400</v>
       </c>
       <c r="K61" s="15"/>
-      <c r="L61" s="34"/>
+      <c r="L61" s="33"/>
       <c r="M61" s="15"/>
       <c r="N61" s="16">
         <f t="shared" si="1"/>
@@ -3977,7 +3994,7 @@
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-      <c r="P61" s="47"/>
+      <c r="P61" s="46"/>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A62" s="16">
@@ -3995,23 +4012,23 @@
       <c r="E62" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F62" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G62" s="33">
+      <c r="F62" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G62" s="32">
         <v>500</v>
       </c>
-      <c r="H62" s="32">
-        <v>700</v>
-      </c>
-      <c r="I62" s="32">
-        <v>200</v>
-      </c>
-      <c r="J62" s="32">
+      <c r="H62" s="31">
+        <v>700</v>
+      </c>
+      <c r="I62" s="31">
+        <v>200</v>
+      </c>
+      <c r="J62" s="31">
         <v>400</v>
       </c>
       <c r="K62" s="15"/>
-      <c r="L62" s="34"/>
+      <c r="L62" s="33"/>
       <c r="M62" s="15"/>
       <c r="N62" s="16">
         <f t="shared" si="1"/>
@@ -4021,7 +4038,7 @@
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-      <c r="P62" s="47"/>
+      <c r="P62" s="46"/>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A63" s="16">
@@ -4039,23 +4056,23 @@
       <c r="E63" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F63" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G63" s="33">
+      <c r="F63" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G63" s="32">
         <v>450</v>
       </c>
-      <c r="H63" s="32">
-        <v>700</v>
-      </c>
-      <c r="I63" s="32">
-        <v>200</v>
-      </c>
-      <c r="J63" s="32">
+      <c r="H63" s="31">
+        <v>700</v>
+      </c>
+      <c r="I63" s="31">
+        <v>200</v>
+      </c>
+      <c r="J63" s="31">
         <v>400</v>
       </c>
       <c r="K63" s="15"/>
-      <c r="L63" s="34"/>
+      <c r="L63" s="33"/>
       <c r="M63" s="15"/>
       <c r="N63" s="16">
         <f t="shared" si="1"/>
@@ -4065,7 +4082,7 @@
         <f t="shared" si="2"/>
         <v>3450</v>
       </c>
-      <c r="P63" s="47"/>
+      <c r="P63" s="46"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A64" s="16">
@@ -4083,23 +4100,23 @@
       <c r="E64" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F64" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G64" s="33">
+      <c r="F64" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G64" s="32">
         <v>550</v>
       </c>
-      <c r="H64" s="32">
-        <v>700</v>
-      </c>
-      <c r="I64" s="32">
-        <v>200</v>
-      </c>
-      <c r="J64" s="32">
+      <c r="H64" s="31">
+        <v>700</v>
+      </c>
+      <c r="I64" s="31">
+        <v>200</v>
+      </c>
+      <c r="J64" s="31">
         <v>400</v>
       </c>
       <c r="K64" s="15"/>
-      <c r="L64" s="34"/>
+      <c r="L64" s="33"/>
       <c r="M64" s="15"/>
       <c r="N64" s="16">
         <f t="shared" si="1"/>
@@ -4109,14 +4126,14 @@
         <f t="shared" si="2"/>
         <v>3550</v>
       </c>
-      <c r="P64" s="46"/>
+      <c r="P64" s="45"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A65" s="16">
         <v>60</v>
       </c>
-      <c r="B65" s="70" t="s">
-        <v>127</v>
+      <c r="B65" s="14" t="s">
+        <v>45</v>
       </c>
       <c r="C65" s="17" t="s">
         <v>22</v>
@@ -4127,40 +4144,40 @@
       <c r="E65" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F65" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G65" s="33">
-        <v>500</v>
-      </c>
-      <c r="H65" s="32">
-        <v>700</v>
-      </c>
-      <c r="I65" s="32">
-        <v>200</v>
-      </c>
-      <c r="J65" s="32">
-        <v>400</v>
-      </c>
-      <c r="K65" s="15"/>
-      <c r="L65" s="34"/>
-      <c r="M65" s="15"/>
+      <c r="F65" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G65" s="32">
+        <v>550</v>
+      </c>
+      <c r="H65" s="31">
+        <v>700</v>
+      </c>
+      <c r="I65" s="31">
+        <v>200</v>
+      </c>
+      <c r="J65" s="31">
+        <v>400</v>
+      </c>
+      <c r="K65" s="23"/>
+      <c r="L65" s="23"/>
+      <c r="M65" s="23"/>
       <c r="N65" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F65+G65)/21.75/8*1.5*K65+(F65+G65)/21.75/8*2*L65+(F65+G65)/21.75/8*3*M65,0)</f>
         <v>0</v>
       </c>
       <c r="O65" s="16">
-        <f t="shared" si="2"/>
-        <v>3500</v>
-      </c>
-      <c r="P65" s="46"/>
-    </row>
-    <row r="66" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+        <f>N65+F65+G65+H65+I65+J65</f>
+        <v>3550</v>
+      </c>
+      <c r="P65" s="49"/>
+    </row>
+    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A66" s="16">
         <v>61</v>
       </c>
-      <c r="B66" s="14" t="s">
-        <v>92</v>
+      <c r="B66" s="57" t="s">
+        <v>125</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>22</v>
@@ -4171,23 +4188,23 @@
       <c r="E66" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F66" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G66" s="33">
+      <c r="F66" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G66" s="32">
         <v>500</v>
       </c>
-      <c r="H66" s="32">
-        <v>700</v>
-      </c>
-      <c r="I66" s="32">
-        <v>200</v>
-      </c>
-      <c r="J66" s="32">
+      <c r="H66" s="31">
+        <v>700</v>
+      </c>
+      <c r="I66" s="31">
+        <v>200</v>
+      </c>
+      <c r="J66" s="31">
         <v>400</v>
       </c>
       <c r="K66" s="15"/>
-      <c r="L66" s="15"/>
+      <c r="L66" s="33"/>
       <c r="M66" s="15"/>
       <c r="N66" s="16">
         <f t="shared" si="1"/>
@@ -4197,14 +4214,14 @@
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-      <c r="P66" s="40"/>
+      <c r="P66" s="45"/>
     </row>
     <row r="67" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="16">
         <v>62</v>
       </c>
-      <c r="B67" s="35" t="s">
-        <v>121</v>
+      <c r="B67" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>22</v>
@@ -4215,19 +4232,19 @@
       <c r="E67" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F67" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G67" s="33">
-        <v>400</v>
-      </c>
-      <c r="H67" s="32">
-        <v>700</v>
-      </c>
-      <c r="I67" s="32">
-        <v>200</v>
-      </c>
-      <c r="J67" s="32">
+      <c r="F67" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G67" s="32">
+        <v>500</v>
+      </c>
+      <c r="H67" s="31">
+        <v>700</v>
+      </c>
+      <c r="I67" s="31">
+        <v>200</v>
+      </c>
+      <c r="J67" s="31">
         <v>400</v>
       </c>
       <c r="K67" s="15"/>
@@ -4239,39 +4256,39 @@
       </c>
       <c r="O67" s="16">
         <f t="shared" si="2"/>
-        <v>3400</v>
-      </c>
-      <c r="P67" s="40"/>
+        <v>3500</v>
+      </c>
+      <c r="P67" s="39"/>
     </row>
     <row r="68" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A68" s="16">
         <v>63</v>
       </c>
-      <c r="B68" s="14" t="s">
-        <v>93</v>
+      <c r="B68" s="34" t="s">
+        <v>119</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E68" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F68" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G68" s="33">
-        <v>450</v>
-      </c>
-      <c r="H68" s="32">
-        <v>700</v>
-      </c>
-      <c r="I68" s="32">
-        <v>200</v>
-      </c>
-      <c r="J68" s="32">
+      <c r="F68" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G68" s="32">
+        <v>400</v>
+      </c>
+      <c r="H68" s="31">
+        <v>700</v>
+      </c>
+      <c r="I68" s="31">
+        <v>200</v>
+      </c>
+      <c r="J68" s="31">
         <v>400</v>
       </c>
       <c r="K68" s="15"/>
@@ -4282,20 +4299,20 @@
         <v>0</v>
       </c>
       <c r="O68" s="16">
-        <f>N68+F68+G68+H68+I68+J68</f>
-        <v>3450</v>
-      </c>
-      <c r="P68" s="40"/>
+        <f t="shared" si="2"/>
+        <v>3400</v>
+      </c>
+      <c r="P68" s="39"/>
     </row>
     <row r="69" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A69" s="16">
         <v>64</v>
       </c>
       <c r="B69" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C69" s="25" t="s">
-        <v>95</v>
+        <v>93</v>
+      </c>
+      <c r="C69" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>23</v>
@@ -4303,43 +4320,43 @@
       <c r="E69" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F69" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G69" s="33">
+      <c r="F69" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G69" s="32">
         <v>450</v>
       </c>
-      <c r="H69" s="32">
-        <v>700</v>
-      </c>
-      <c r="I69" s="32">
-        <v>200</v>
-      </c>
-      <c r="J69" s="32">
-        <v>400</v>
-      </c>
-      <c r="K69" s="14"/>
-      <c r="L69" s="14"/>
-      <c r="M69" s="14"/>
+      <c r="H69" s="31">
+        <v>700</v>
+      </c>
+      <c r="I69" s="31">
+        <v>200</v>
+      </c>
+      <c r="J69" s="31">
+        <v>400</v>
+      </c>
+      <c r="K69" s="15"/>
+      <c r="L69" s="15"/>
+      <c r="M69" s="15"/>
       <c r="N69" s="16">
-        <f>ROUND((F69+G69)/21.75/8*1.5*K69+(F69+G69)/21.75/8*2*L69+(F69+G69)/21.75/8*3*M69,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O69" s="33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O69" s="16">
         <f>N69+F69+G69+H69+I69+J69</f>
         <v>3450</v>
       </c>
-      <c r="P69" s="40"/>
-    </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P69" s="39"/>
+    </row>
+    <row r="70" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A70" s="16">
         <v>65</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C70" s="26" t="s">
-        <v>55</v>
+        <v>94</v>
+      </c>
+      <c r="C70" s="25" t="s">
+        <v>95</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>23</v>
@@ -4347,43 +4364,43 @@
       <c r="E70" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F70" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G70" s="33">
-        <v>400</v>
-      </c>
-      <c r="H70" s="32">
-        <v>700</v>
-      </c>
-      <c r="I70" s="32">
-        <v>200</v>
-      </c>
-      <c r="J70" s="32">
-        <v>400</v>
-      </c>
-      <c r="K70" s="15"/>
-      <c r="L70" s="15"/>
-      <c r="M70" s="15"/>
+      <c r="F70" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G70" s="32">
+        <v>450</v>
+      </c>
+      <c r="H70" s="31">
+        <v>700</v>
+      </c>
+      <c r="I70" s="31">
+        <v>200</v>
+      </c>
+      <c r="J70" s="31">
+        <v>400</v>
+      </c>
+      <c r="K70" s="14"/>
+      <c r="L70" s="14"/>
+      <c r="M70" s="14"/>
       <c r="N70" s="16">
         <f>ROUND((F70+G70)/21.75/8*1.5*K70+(F70+G70)/21.75/8*2*L70+(F70+G70)/21.75/8*3*M70,0)</f>
         <v>0</v>
       </c>
-      <c r="O70" s="16">
+      <c r="O70" s="32">
         <f>N70+F70+G70+H70+I70+J70</f>
-        <v>3400</v>
-      </c>
-      <c r="P70" s="40"/>
+        <v>3450</v>
+      </c>
+      <c r="P70" s="39"/>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A71" s="16">
         <v>66</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C71" s="26" t="s">
-        <v>98</v>
+        <v>55</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>23</v>
@@ -4391,23 +4408,23 @@
       <c r="E71" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="32">
-        <v>1700</v>
-      </c>
-      <c r="G71" s="33">
-        <v>500</v>
-      </c>
-      <c r="H71" s="32">
-        <v>700</v>
-      </c>
-      <c r="I71" s="32">
-        <v>200</v>
-      </c>
-      <c r="J71" s="32">
-        <v>400</v>
-      </c>
-      <c r="K71" s="16"/>
-      <c r="L71" s="14"/>
+      <c r="F71" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G71" s="32">
+        <v>400</v>
+      </c>
+      <c r="H71" s="31">
+        <v>700</v>
+      </c>
+      <c r="I71" s="31">
+        <v>200</v>
+      </c>
+      <c r="J71" s="31">
+        <v>400</v>
+      </c>
+      <c r="K71" s="15"/>
+      <c r="L71" s="15"/>
       <c r="M71" s="15"/>
       <c r="N71" s="16">
         <f>ROUND((F71+G71)/21.75/8*1.5*K71+(F71+G71)/21.75/8*2*L71+(F71+G71)/21.75/8*3*M71,0)</f>
@@ -4415,19 +4432,19 @@
       </c>
       <c r="O71" s="16">
         <f>N71+F71+G71+H71+I71+J71</f>
-        <v>3500</v>
-      </c>
-      <c r="P71" s="40"/>
+        <v>3400</v>
+      </c>
+      <c r="P71" s="39"/>
     </row>
     <row r="72" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A72" s="16">
         <v>67</v>
       </c>
       <c r="B72" s="14" t="s">
+        <v>98</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>99</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>100</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>23</v>
@@ -4445,17 +4462,17 @@
       <c r="M72" s="15"/>
       <c r="N72" s="16"/>
       <c r="O72" s="16"/>
-      <c r="P72" s="40"/>
+      <c r="P72" s="39"/>
     </row>
     <row r="73" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A73" s="16">
         <v>68</v>
       </c>
       <c r="B73" s="14" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>23</v>
@@ -4473,17 +4490,17 @@
       <c r="M73" s="15"/>
       <c r="N73" s="16"/>
       <c r="O73" s="16"/>
-      <c r="P73" s="40"/>
+      <c r="P73" s="39"/>
     </row>
     <row r="74" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A74" s="16">
         <v>69</v>
       </c>
       <c r="B74" s="14" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>23</v>
@@ -4501,17 +4518,17 @@
       <c r="M74" s="14"/>
       <c r="N74" s="16"/>
       <c r="O74" s="16"/>
-      <c r="P74" s="40"/>
+      <c r="P74" s="39"/>
     </row>
     <row r="75" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A75" s="16">
         <v>70</v>
       </c>
       <c r="B75" s="14" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>23</v>
@@ -4529,17 +4546,17 @@
       <c r="M75" s="14"/>
       <c r="N75" s="16"/>
       <c r="O75" s="16"/>
-      <c r="P75" s="40"/>
+      <c r="P75" s="39"/>
     </row>
     <row r="76" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A76" s="16">
         <v>71</v>
       </c>
       <c r="B76" s="14" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>23</v>
@@ -4557,17 +4574,17 @@
       <c r="M76" s="14"/>
       <c r="N76" s="16"/>
       <c r="O76" s="16"/>
-      <c r="P76" s="40"/>
+      <c r="P76" s="39"/>
     </row>
     <row r="77" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A77" s="16">
         <v>72</v>
       </c>
       <c r="B77" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>23</v>
@@ -4585,17 +4602,17 @@
       <c r="M77" s="14"/>
       <c r="N77" s="16"/>
       <c r="O77" s="16"/>
-      <c r="P77" s="40"/>
+      <c r="P77" s="39"/>
     </row>
     <row r="78" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A78" s="16">
         <v>73</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>23</v>
@@ -4613,17 +4630,17 @@
       <c r="M78" s="14"/>
       <c r="N78" s="16"/>
       <c r="O78" s="16"/>
-      <c r="P78" s="40"/>
+      <c r="P78" s="39"/>
     </row>
     <row r="79" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A79" s="16">
         <v>74</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>23</v>
@@ -4641,17 +4658,17 @@
       <c r="M79" s="14"/>
       <c r="N79" s="16"/>
       <c r="O79" s="16"/>
-      <c r="P79" s="40"/>
+      <c r="P79" s="39"/>
     </row>
     <row r="80" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A80" s="16">
         <v>75</v>
       </c>
       <c r="B80" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>108</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>109</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>23</v>
@@ -4669,17 +4686,17 @@
       <c r="M80" s="14"/>
       <c r="N80" s="16"/>
       <c r="O80" s="16"/>
-      <c r="P80" s="40"/>
+      <c r="P80" s="39"/>
     </row>
     <row r="81" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A81" s="16">
         <v>76</v>
       </c>
       <c r="B81" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>23</v>
@@ -4697,17 +4714,17 @@
       <c r="M81" s="14"/>
       <c r="N81" s="16"/>
       <c r="O81" s="16"/>
-      <c r="P81" s="40"/>
+      <c r="P81" s="39"/>
     </row>
     <row r="82" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="16">
         <v>77</v>
       </c>
       <c r="B82" s="14" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>23</v>
@@ -4725,17 +4742,17 @@
       <c r="M82" s="14"/>
       <c r="N82" s="16"/>
       <c r="O82" s="16"/>
-      <c r="P82" s="41"/>
+      <c r="P82" s="40"/>
     </row>
     <row r="83" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="16">
         <v>78</v>
       </c>
       <c r="B83" s="14" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>23</v>
@@ -4753,17 +4770,17 @@
       <c r="M83" s="14"/>
       <c r="N83" s="16"/>
       <c r="O83" s="16"/>
-      <c r="P83" s="42"/>
+      <c r="P83" s="41"/>
     </row>
     <row r="84" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A84" s="16">
         <v>79</v>
       </c>
       <c r="B84" s="14" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>23</v>
@@ -4781,17 +4798,17 @@
       <c r="M84" s="14"/>
       <c r="N84" s="16"/>
       <c r="O84" s="16"/>
-      <c r="P84" s="40"/>
+      <c r="P84" s="39"/>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A85" s="16">
         <v>80</v>
       </c>
       <c r="B85" s="14" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>23</v>
@@ -4809,17 +4826,17 @@
       <c r="M85" s="14"/>
       <c r="N85" s="16"/>
       <c r="O85" s="16"/>
-      <c r="P85" s="55"/>
+      <c r="P85" s="54"/>
     </row>
     <row r="86" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="16">
         <v>81</v>
       </c>
       <c r="B86" s="14" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>23</v>
@@ -4837,17 +4854,17 @@
       <c r="M86" s="14"/>
       <c r="N86" s="16"/>
       <c r="O86" s="16"/>
-      <c r="P86" s="43"/>
+      <c r="P86" s="42"/>
     </row>
     <row r="87" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="16">
         <v>82</v>
       </c>
       <c r="B87" s="14" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>23</v>
@@ -4865,17 +4882,17 @@
       <c r="M87" s="14"/>
       <c r="N87" s="16"/>
       <c r="O87" s="16"/>
-      <c r="P87" s="40"/>
+      <c r="P87" s="39"/>
     </row>
     <row r="88" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A88" s="16">
         <v>83</v>
       </c>
-      <c r="B88" s="31" t="s">
-        <v>120</v>
+      <c r="B88" s="30" t="s">
+        <v>118</v>
       </c>
       <c r="C88" s="14" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D88" s="14" t="s">
         <v>23</v>
@@ -4893,7 +4910,7 @@
       <c r="M88" s="14"/>
       <c r="N88" s="16"/>
       <c r="O88" s="16"/>
-      <c r="P88" s="40"/>
+      <c r="P88" s="39"/>
     </row>
     <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A89" s="14"/>
@@ -4945,14 +4962,14 @@
     </row>
     <row r="90" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A90" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B90" s="6"/>
       <c r="C90" s="6"/>
       <c r="D90" s="6"/>
       <c r="E90" s="6"/>
       <c r="F90" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -4962,8 +4979,8 @@
       <c r="L90" s="6"/>
       <c r="M90" s="6"/>
       <c r="N90" s="6"/>
-      <c r="O90" s="37" t="s">
-        <v>122</v>
+      <c r="O90" s="36" t="s">
+        <v>120</v>
       </c>
       <c r="P90" s="8"/>
     </row>

--- a/工资表模板.xlsx
+++ b/工资表模板.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen.changfei\Desktop\工资查询系统\staff_salary\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chen.changfei\Desktop\协管员管理电子系统\salary_maker\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3A96893-7A3B-459F-AE7D-786234D1387A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0682EC29-7F3C-45C3-AC33-CDD15767A6F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{AE5C5FC7-6F19-4686-87C6-8592E0D5EF2A}"/>
   </bookViews>
@@ -16,8 +16,8 @@
     <sheet name=" 武汉海关协管员工资、考勤及加班汇总表" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' 武汉海关协管员工资、考勤及加班汇总表'!$5:$90</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">' 武汉海关协管员工资、考勤及加班汇总表'!$A$1:$P$92</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">' 武汉海关协管员工资、考勤及加班汇总表'!$5:$89</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">' 武汉海关协管员工资、考勤及加班汇总表'!$A$1:$P$91</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">' 武汉海关协管员工资、考勤及加班汇总表'!$1:$5</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="128">
   <si>
     <r>
       <rPr>
@@ -163,9 +163,6 @@
     <t>朱继文</t>
   </si>
   <si>
-    <t>曹运启</t>
-  </si>
-  <si>
     <t>汤静涵</t>
   </si>
   <si>
@@ -512,10 +509,6 @@
   </si>
   <si>
     <t>护士</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>训犬员</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1007,42 +1000,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="177" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
@@ -1058,6 +1015,42 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1368,12 +1361,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S93"/>
+  <dimension ref="A1:S92"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozenSplit"/>
+      <pane ySplit="5" topLeftCell="A73" activePane="bottomLeft" state="frozenSplit"/>
       <selection activeCell="O4" sqref="O4:O5"/>
-      <selection pane="bottomLeft" activeCell="B68" activeCellId="1" sqref="B53:B66 B68"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6:A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
@@ -1415,24 +1408,24 @@
       <c r="P1" s="8"/>
     </row>
     <row r="2" spans="1:19" ht="16.5" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A2" s="67" t="s">
+      <c r="A2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="69"/>
+      <c r="B2" s="71"/>
+      <c r="C2" s="71"/>
+      <c r="D2" s="71"/>
+      <c r="E2" s="71"/>
+      <c r="F2" s="71"/>
+      <c r="G2" s="71"/>
+      <c r="H2" s="71"/>
+      <c r="I2" s="71"/>
+      <c r="J2" s="72"/>
+      <c r="K2" s="71"/>
+      <c r="L2" s="71"/>
+      <c r="M2" s="71"/>
+      <c r="N2" s="71"/>
+      <c r="O2" s="71"/>
+      <c r="P2" s="73"/>
     </row>
     <row r="3" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A3" s="9" t="s">
@@ -1459,28 +1452,28 @@
       <c r="P3" s="13"/>
     </row>
     <row r="4" spans="1:19" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A4" s="58"/>
-      <c r="B4" s="59"/>
-      <c r="C4" s="59"/>
-      <c r="D4" s="59"/>
-      <c r="E4" s="59"/>
-      <c r="F4" s="59"/>
-      <c r="G4" s="59"/>
-      <c r="H4" s="59"/>
-      <c r="I4" s="59"/>
-      <c r="J4" s="60"/>
-      <c r="K4" s="64" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="63"/>
+      <c r="D4" s="63"/>
+      <c r="E4" s="63"/>
+      <c r="F4" s="63"/>
+      <c r="G4" s="63"/>
+      <c r="H4" s="63"/>
+      <c r="I4" s="63"/>
+      <c r="J4" s="64"/>
+      <c r="K4" s="68" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="65"/>
-      <c r="M4" s="66"/>
-      <c r="N4" s="61"/>
-      <c r="O4" s="62"/>
-      <c r="P4" s="63"/>
+      <c r="L4" s="69"/>
+      <c r="M4" s="70"/>
+      <c r="N4" s="65"/>
+      <c r="O4" s="66"/>
+      <c r="P4" s="67"/>
     </row>
     <row r="5" spans="1:19" ht="41.25" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A5" s="55" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B5" s="56" t="s">
         <v>4</v>
@@ -1570,7 +1563,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="16">
-        <f t="shared" ref="O6:O37" si="0">N6+F6+G6+H6+I6+J6</f>
+        <f t="shared" ref="O6:O36" si="0">N6+F6+G6+H6+I6+J6</f>
         <v>3750</v>
       </c>
       <c r="P6" s="50"/>
@@ -1613,7 +1606,7 @@
       <c r="L7" s="22"/>
       <c r="M7" s="21"/>
       <c r="N7" s="16">
-        <f t="shared" ref="N7:N69" si="1">ROUND((F7+G7)/21.75/8*1.5*K7+(F7+G7)/21.75/8*2*L7+(F7+G7)/21.75/8*3*M7,0)</f>
+        <f t="shared" ref="N7:N68" si="1">ROUND((F7+G7)/21.75/8*1.5*K7+(F7+G7)/21.75/8*2*L7+(F7+G7)/21.75/8*3*M7,0)</f>
         <v>0</v>
       </c>
       <c r="O7" s="16">
@@ -1718,7 +1711,7 @@
         <v>29</v>
       </c>
       <c r="C10" s="44" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="D10" s="14" t="s">
         <v>26</v>
@@ -1754,18 +1747,18 @@
       </c>
       <c r="P10" s="53"/>
     </row>
-    <row r="11" spans="1:19" ht="19.149999999999999" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A11" s="16">
         <v>6</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="C11" s="44" t="s">
-        <v>123</v>
+        <v>96</v>
+      </c>
+      <c r="C11" s="61" t="s">
+        <v>127</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E11" s="14" t="s">
         <v>11</v>
@@ -1774,7 +1767,7 @@
         <v>1700</v>
       </c>
       <c r="G11" s="32">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="H11" s="31">
         <v>700</v>
@@ -1785,28 +1778,28 @@
       <c r="J11" s="31">
         <v>400</v>
       </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="21"/>
+      <c r="K11" s="16"/>
+      <c r="L11" s="14"/>
+      <c r="M11" s="15"/>
       <c r="N11" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F11+G11)/21.75/8*1.5*K11+(F11+G11)/21.75/8*2*L11+(F11+G11)/21.75/8*3*M11,0)</f>
         <v>0</v>
       </c>
       <c r="O11" s="16">
-        <f t="shared" si="0"/>
-        <v>3450</v>
-      </c>
-      <c r="P11" s="37"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.4">
+        <f>N11+F11+G11+H11+I11+J11</f>
+        <v>3500</v>
+      </c>
+      <c r="P11" s="39"/>
+    </row>
+    <row r="12" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A12" s="16">
         <v>7</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>97</v>
-      </c>
-      <c r="C12" s="73" t="s">
-        <v>129</v>
+        <v>33</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D12" s="14" t="s">
         <v>23</v>
@@ -1818,7 +1811,7 @@
         <v>1700</v>
       </c>
       <c r="G12" s="32">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="H12" s="31">
         <v>700</v>
@@ -1829,28 +1822,28 @@
       <c r="J12" s="31">
         <v>400</v>
       </c>
-      <c r="K12" s="16"/>
-      <c r="L12" s="14"/>
+      <c r="K12" s="15"/>
+      <c r="L12" s="15"/>
       <c r="M12" s="15"/>
       <c r="N12" s="16">
-        <f>ROUND((F12+G12)/21.75/8*1.5*K12+(F12+G12)/21.75/8*2*L12+(F12+G12)/21.75/8*3*M12,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O12" s="16">
-        <f>N12+F12+G12+H12+I12+J12</f>
-        <v>3500</v>
-      </c>
-      <c r="P12" s="39"/>
-    </row>
-    <row r="13" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+        <f t="shared" si="0"/>
+        <v>3550</v>
+      </c>
+      <c r="P12" s="23"/>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A13" s="16">
         <v>8</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>22</v>
+        <v>38</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>126</v>
       </c>
       <c r="D13" s="14" t="s">
         <v>23</v>
@@ -1873,62 +1866,62 @@
       <c r="J13" s="31">
         <v>400</v>
       </c>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15"/>
-      <c r="M13" s="15"/>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="29"/>
       <c r="N13" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F13+G13)/21.75/8*1.5*K13+(F13+G13)/21.75/8*2*L13+(F13+G13)/21.75/8*3*M13,0)</f>
         <v>0</v>
       </c>
       <c r="O13" s="16">
+        <f>N13+F13+G13+H13+I13+J13</f>
+        <v>3550</v>
+      </c>
+      <c r="P13" s="38"/>
+    </row>
+    <row r="14" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="16">
+        <v>9</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="24" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="F14" s="31">
+        <v>1700</v>
+      </c>
+      <c r="G14" s="32">
+        <v>550</v>
+      </c>
+      <c r="H14" s="31">
+        <v>700</v>
+      </c>
+      <c r="I14" s="31">
+        <v>200</v>
+      </c>
+      <c r="J14" s="31">
+        <v>400</v>
+      </c>
+      <c r="K14" s="15"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="15"/>
+      <c r="N14" s="16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
         <f t="shared" si="0"/>
         <v>3550</v>
       </c>
-      <c r="P13" s="23"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.4">
-      <c r="A14" s="16">
-        <v>9</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="C14" s="71" t="s">
-        <v>128</v>
-      </c>
-      <c r="D14" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E14" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F14" s="31">
-        <v>1700</v>
-      </c>
-      <c r="G14" s="32">
-        <v>550</v>
-      </c>
-      <c r="H14" s="31">
-        <v>700</v>
-      </c>
-      <c r="I14" s="31">
-        <v>200</v>
-      </c>
-      <c r="J14" s="31">
-        <v>400</v>
-      </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="29"/>
-      <c r="N14" s="16">
-        <f>ROUND((F14+G14)/21.75/8*1.5*K14+(F14+G14)/21.75/8*2*L14+(F14+G14)/21.75/8*3*M14,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O14" s="16">
-        <f>N14+F14+G14+H14+I14+J14</f>
-        <v>3550</v>
-      </c>
-      <c r="P14" s="38"/>
+      <c r="P14" s="23"/>
     </row>
     <row r="15" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A15" s="16">
@@ -1938,7 +1931,7 @@
         <v>35</v>
       </c>
       <c r="C15" s="24" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D15" s="14" t="s">
         <v>23</v>
@@ -1950,7 +1943,7 @@
         <v>1700</v>
       </c>
       <c r="G15" s="32">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="H15" s="31">
         <v>700</v>
@@ -1970,19 +1963,19 @@
       </c>
       <c r="O15" s="16">
         <f t="shared" si="0"/>
-        <v>3550</v>
+        <v>3450</v>
       </c>
       <c r="P15" s="23"/>
     </row>
-    <row r="16" spans="1:19" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.4">
       <c r="A16" s="16">
         <v>11</v>
       </c>
       <c r="B16" s="14" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="24" t="s">
-        <v>33</v>
+      <c r="C16" s="25" t="s">
+        <v>37</v>
       </c>
       <c r="D16" s="14" t="s">
         <v>23</v>
@@ -1994,7 +1987,7 @@
         <v>1700</v>
       </c>
       <c r="G16" s="32">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="H16" s="31">
         <v>700</v>
@@ -2005,28 +1998,28 @@
       <c r="J16" s="31">
         <v>400</v>
       </c>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15"/>
-      <c r="M16" s="15"/>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
       <c r="N16" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O16" s="16">
         <f t="shared" si="0"/>
-        <v>3450</v>
-      </c>
-      <c r="P16" s="23"/>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.4">
+        <v>3500</v>
+      </c>
+      <c r="P16" s="38"/>
+    </row>
+    <row r="17" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A17" s="16">
         <v>12</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" s="25" t="s">
-        <v>38</v>
+        <v>30</v>
+      </c>
+      <c r="C17" s="60" t="s">
+        <v>125</v>
       </c>
       <c r="D17" s="14" t="s">
         <v>23</v>
@@ -2037,8 +2030,8 @@
       <c r="F17" s="31">
         <v>1700</v>
       </c>
-      <c r="G17" s="32">
-        <v>500</v>
+      <c r="G17" s="33">
+        <v>550</v>
       </c>
       <c r="H17" s="31">
         <v>700</v>
@@ -2049,28 +2042,28 @@
       <c r="J17" s="31">
         <v>400</v>
       </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="29"/>
+      <c r="K17" s="15"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="15"/>
       <c r="N17" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F17+G17)/21.75/8*1.5*K17+(F17+G17)/21.75/8*2*L17+(F17+G17)/21.75/8*3*M17,0)</f>
         <v>0</v>
       </c>
       <c r="O17" s="16">
-        <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-      <c r="P17" s="38"/>
-    </row>
-    <row r="18" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+        <f>N17+F17+G17+H17+I17+J17</f>
+        <v>3550</v>
+      </c>
+      <c r="P17" s="51"/>
+    </row>
+    <row r="18" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A18" s="16">
         <v>13</v>
       </c>
       <c r="B18" s="14" t="s">
         <v>31</v>
       </c>
-      <c r="C18" s="72" t="s">
-        <v>127</v>
+      <c r="C18" s="58" t="s">
+        <v>125</v>
       </c>
       <c r="D18" s="14" t="s">
         <v>23</v>
@@ -2081,7 +2074,7 @@
       <c r="F18" s="31">
         <v>1700</v>
       </c>
-      <c r="G18" s="33">
+      <c r="G18" s="32">
         <v>550</v>
       </c>
       <c r="H18" s="31">
@@ -2093,7 +2086,7 @@
       <c r="J18" s="31">
         <v>400</v>
       </c>
-      <c r="K18" s="15"/>
+      <c r="K18" s="14"/>
       <c r="L18" s="15"/>
       <c r="M18" s="15"/>
       <c r="N18" s="16">
@@ -2104,17 +2097,17 @@
         <f>N18+F18+G18+H18+I18+J18</f>
         <v>3550</v>
       </c>
-      <c r="P18" s="51"/>
+      <c r="P18" s="23"/>
     </row>
     <row r="19" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A19" s="16">
         <v>14</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" s="70" t="s">
-        <v>127</v>
+        <v>39</v>
+      </c>
+      <c r="C19" s="17" t="s">
+        <v>40</v>
       </c>
       <c r="D19" s="14" t="s">
         <v>23</v>
@@ -2137,28 +2130,28 @@
       <c r="J19" s="31">
         <v>400</v>
       </c>
-      <c r="K19" s="14"/>
+      <c r="K19" s="15"/>
       <c r="L19" s="15"/>
       <c r="M19" s="15"/>
       <c r="N19" s="16">
-        <f>ROUND((F19+G19)/21.75/8*1.5*K19+(F19+G19)/21.75/8*2*L19+(F19+G19)/21.75/8*3*M19,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O19" s="16">
-        <f>N19+F19+G19+H19+I19+J19</f>
+        <f t="shared" si="0"/>
         <v>3550</v>
       </c>
-      <c r="P19" s="23"/>
-    </row>
-    <row r="20" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P19" s="39"/>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A20" s="16">
         <v>15</v>
       </c>
       <c r="B20" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C20" s="17" t="s">
         <v>40</v>
-      </c>
-      <c r="C20" s="17" t="s">
-        <v>41</v>
       </c>
       <c r="D20" s="14" t="s">
         <v>23</v>
@@ -2202,7 +2195,7 @@
         <v>42</v>
       </c>
       <c r="C21" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D21" s="14" t="s">
         <v>23</v>
@@ -2214,7 +2207,7 @@
         <v>1700</v>
       </c>
       <c r="G21" s="32">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="H21" s="31">
         <v>700</v>
@@ -2234,7 +2227,7 @@
       </c>
       <c r="O21" s="16">
         <f t="shared" si="0"/>
-        <v>3550</v>
+        <v>3500</v>
       </c>
       <c r="P21" s="39"/>
     </row>
@@ -2246,10 +2239,10 @@
         <v>43</v>
       </c>
       <c r="C22" s="17" t="s">
-        <v>41</v>
+        <v>22</v>
       </c>
       <c r="D22" s="14" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E22" s="14" t="s">
         <v>11</v>
@@ -2258,36 +2251,36 @@
         <v>1700</v>
       </c>
       <c r="G22" s="32">
+        <v>450</v>
+      </c>
+      <c r="H22" s="31">
+        <v>700</v>
+      </c>
+      <c r="I22" s="31">
+        <v>200</v>
+      </c>
+      <c r="J22" s="31">
         <v>500</v>
       </c>
-      <c r="H22" s="31">
-        <v>700</v>
-      </c>
-      <c r="I22" s="31">
-        <v>200</v>
-      </c>
-      <c r="J22" s="31">
-        <v>400</v>
-      </c>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15"/>
-      <c r="M22" s="15"/>
+      <c r="K22" s="23"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="23"/>
       <c r="N22" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O22" s="16">
         <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-      <c r="P22" s="39"/>
+        <v>3550</v>
+      </c>
+      <c r="P22" s="51"/>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A23" s="16">
         <v>18</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C23" s="17" t="s">
         <v>22</v>
@@ -2302,7 +2295,7 @@
         <v>1700</v>
       </c>
       <c r="G23" s="32">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="H23" s="31">
         <v>700</v>
@@ -2311,7 +2304,7 @@
         <v>200</v>
       </c>
       <c r="J23" s="31">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
@@ -2324,7 +2317,7 @@
         <f t="shared" si="0"/>
         <v>3550</v>
       </c>
-      <c r="P23" s="51"/>
+      <c r="P23" s="49"/>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A24" s="16">
@@ -2334,7 +2327,7 @@
         <v>46</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D24" s="14" t="s">
         <v>26</v>
@@ -2375,10 +2368,10 @@
         <v>20</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="C25" s="17" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="D25" s="14" t="s">
         <v>26</v>
@@ -2390,7 +2383,7 @@
         <v>1700</v>
       </c>
       <c r="G25" s="32">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="H25" s="31">
         <v>700</v>
@@ -2410,19 +2403,19 @@
       </c>
       <c r="O25" s="16">
         <f t="shared" si="0"/>
-        <v>3550</v>
-      </c>
-      <c r="P25" s="49"/>
+        <v>3500</v>
+      </c>
+      <c r="P25" s="23"/>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A26" s="16">
         <v>21</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="C26" s="17" t="s">
         <v>51</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="D26" s="14" t="s">
         <v>26</v>
@@ -2434,7 +2427,7 @@
         <v>1700</v>
       </c>
       <c r="G26" s="32">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="H26" s="31">
         <v>700</v>
@@ -2454,19 +2447,19 @@
       </c>
       <c r="O26" s="16">
         <f t="shared" si="0"/>
-        <v>3500</v>
-      </c>
-      <c r="P26" s="23"/>
+        <v>3550</v>
+      </c>
+      <c r="P26" s="49"/>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A27" s="16">
         <v>22</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>52</v>
-      </c>
-      <c r="C27" s="15" t="s">
         <v>53</v>
+      </c>
+      <c r="C27" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="D27" s="14" t="s">
         <v>26</v>
@@ -2507,10 +2500,10 @@
         <v>23</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>54</v>
-      </c>
-      <c r="C28" s="26" t="s">
         <v>55</v>
+      </c>
+      <c r="C28" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D28" s="14" t="s">
         <v>26</v>
@@ -2522,7 +2515,7 @@
         <v>1700</v>
       </c>
       <c r="G28" s="32">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="H28" s="31">
         <v>700</v>
@@ -2542,7 +2535,7 @@
       </c>
       <c r="O28" s="16">
         <f t="shared" si="0"/>
-        <v>3550</v>
+        <v>3450</v>
       </c>
       <c r="P28" s="49"/>
     </row>
@@ -2551,10 +2544,10 @@
         <v>24</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>56</v>
+        <v>70</v>
       </c>
       <c r="C29" s="17" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D29" s="14" t="s">
         <v>26</v>
@@ -2566,7 +2559,7 @@
         <v>1700</v>
       </c>
       <c r="G29" s="32">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="H29" s="31">
         <v>700</v>
@@ -2577,16 +2570,16 @@
       <c r="J29" s="31">
         <v>400</v>
       </c>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
+      <c r="K29" s="14"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="15"/>
       <c r="N29" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F29+G29)/21.75/8*1.5*K29+(F29+G29)/21.75/8*2*L29+(F29+G29)/21.75/8*3*M29,0)</f>
         <v>0</v>
       </c>
       <c r="O29" s="16">
-        <f t="shared" si="0"/>
-        <v>3450</v>
+        <f>N29+F29+G29+H29+I29+J29</f>
+        <v>3550</v>
       </c>
       <c r="P29" s="49"/>
     </row>
@@ -2595,10 +2588,10 @@
         <v>25</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>71</v>
+        <v>56</v>
       </c>
       <c r="C30" s="17" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D30" s="14" t="s">
         <v>26</v>
@@ -2621,15 +2614,15 @@
       <c r="J30" s="31">
         <v>400</v>
       </c>
-      <c r="K30" s="14"/>
-      <c r="L30" s="35"/>
-      <c r="M30" s="15"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
       <c r="N30" s="16">
-        <f>ROUND((F30+G30)/21.75/8*1.5*K30+(F30+G30)/21.75/8*2*L30+(F30+G30)/21.75/8*3*M30,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O30" s="16">
-        <f>N30+F30+G30+H30+I30+J30</f>
+        <f t="shared" si="0"/>
         <v>3550</v>
       </c>
       <c r="P30" s="49"/>
@@ -2654,7 +2647,7 @@
         <v>1700</v>
       </c>
       <c r="G31" s="32">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="H31" s="31">
         <v>700</v>
@@ -2674,7 +2667,7 @@
       </c>
       <c r="O31" s="16">
         <f t="shared" si="0"/>
-        <v>3550</v>
+        <v>3450</v>
       </c>
       <c r="P31" s="49"/>
     </row>
@@ -2683,7 +2676,7 @@
         <v>27</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="C32" s="17" t="s">
         <v>22</v>
@@ -2698,7 +2691,7 @@
         <v>1700</v>
       </c>
       <c r="G32" s="32">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="H32" s="31">
         <v>700</v>
@@ -2709,25 +2702,25 @@
       <c r="J32" s="31">
         <v>400</v>
       </c>
-      <c r="K32" s="23"/>
-      <c r="L32" s="23"/>
-      <c r="M32" s="23"/>
+      <c r="K32" s="14"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="15"/>
       <c r="N32" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F32+G32)/21.75/8*1.5*K32+(F32+G32)/21.75/8*2*L32+(F32+G32)/21.75/8*3*M32,0)</f>
         <v>0</v>
       </c>
       <c r="O32" s="16">
-        <f t="shared" si="0"/>
-        <v>3450</v>
-      </c>
-      <c r="P32" s="49"/>
+        <f>N32+F32+G32+H32+I32+J32</f>
+        <v>3550</v>
+      </c>
+      <c r="P32" s="39"/>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A33" s="16">
         <v>28</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>72</v>
+        <v>58</v>
       </c>
       <c r="C33" s="17" t="s">
         <v>22</v>
@@ -2742,7 +2735,7 @@
         <v>1700</v>
       </c>
       <c r="G33" s="32">
-        <v>550</v>
+        <v>450</v>
       </c>
       <c r="H33" s="31">
         <v>700</v>
@@ -2753,18 +2746,18 @@
       <c r="J33" s="31">
         <v>400</v>
       </c>
-      <c r="K33" s="14"/>
-      <c r="L33" s="35"/>
-      <c r="M33" s="15"/>
+      <c r="K33" s="23"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="23"/>
       <c r="N33" s="16">
-        <f>ROUND((F33+G33)/21.75/8*1.5*K33+(F33+G33)/21.75/8*2*L33+(F33+G33)/21.75/8*3*M33,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O33" s="16">
-        <f>N33+F33+G33+H33+I33+J33</f>
-        <v>3550</v>
-      </c>
-      <c r="P33" s="39"/>
+        <f t="shared" si="0"/>
+        <v>3450</v>
+      </c>
+      <c r="P33" s="49"/>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A34" s="16">
@@ -2786,7 +2779,7 @@
         <v>1700</v>
       </c>
       <c r="G34" s="32">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="H34" s="31">
         <v>700</v>
@@ -2797,7 +2790,7 @@
       <c r="J34" s="31">
         <v>400</v>
       </c>
-      <c r="K34" s="23"/>
+      <c r="K34" s="29"/>
       <c r="L34" s="23"/>
       <c r="M34" s="23"/>
       <c r="N34" s="16">
@@ -2806,9 +2799,9 @@
       </c>
       <c r="O34" s="16">
         <f t="shared" si="0"/>
-        <v>3450</v>
-      </c>
-      <c r="P34" s="49"/>
+        <v>3550</v>
+      </c>
+      <c r="P34" s="23"/>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A35" s="16">
@@ -2841,7 +2834,7 @@
       <c r="J35" s="31">
         <v>400</v>
       </c>
-      <c r="K35" s="29"/>
+      <c r="K35" s="23"/>
       <c r="L35" s="23"/>
       <c r="M35" s="23"/>
       <c r="N35" s="16">
@@ -2852,7 +2845,7 @@
         <f t="shared" si="0"/>
         <v>3550</v>
       </c>
-      <c r="P35" s="23"/>
+      <c r="P35" s="49"/>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A36" s="16">
@@ -2874,7 +2867,7 @@
         <v>1700</v>
       </c>
       <c r="G36" s="32">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="H36" s="31">
         <v>700</v>
@@ -2894,7 +2887,7 @@
       </c>
       <c r="O36" s="16">
         <f t="shared" si="0"/>
-        <v>3550</v>
+        <v>3500</v>
       </c>
       <c r="P36" s="49"/>
     </row>
@@ -2918,27 +2911,25 @@
         <v>1700</v>
       </c>
       <c r="G37" s="32">
+        <v>450</v>
+      </c>
+      <c r="H37" s="31">
+        <v>700</v>
+      </c>
+      <c r="I37" s="31"/>
+      <c r="J37" s="31">
         <v>500</v>
       </c>
-      <c r="H37" s="31">
-        <v>700</v>
-      </c>
-      <c r="I37" s="31">
-        <v>200</v>
-      </c>
-      <c r="J37" s="31">
-        <v>400</v>
-      </c>
-      <c r="K37" s="23"/>
-      <c r="L37" s="23"/>
-      <c r="M37" s="23"/>
+      <c r="K37" s="14"/>
+      <c r="L37" s="35"/>
+      <c r="M37" s="15"/>
       <c r="N37" s="16">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O37" s="16">
-        <f t="shared" si="0"/>
-        <v>3500</v>
+        <f t="shared" ref="O37:O67" si="2">N37+F37+G37+H37+I37+J37</f>
+        <v>3350</v>
       </c>
       <c r="P37" s="49"/>
     </row>
@@ -2967,9 +2958,11 @@
       <c r="H38" s="31">
         <v>700</v>
       </c>
-      <c r="I38" s="31"/>
+      <c r="I38" s="31">
+        <v>200</v>
+      </c>
       <c r="J38" s="31">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K38" s="14"/>
       <c r="L38" s="35"/>
@@ -2979,8 +2972,8 @@
         <v>0</v>
       </c>
       <c r="O38" s="16">
-        <f t="shared" ref="O38:O68" si="2">N38+F38+G38+H38+I38+J38</f>
-        <v>3350</v>
+        <f t="shared" si="2"/>
+        <v>3450</v>
       </c>
       <c r="P38" s="49"/>
     </row>
@@ -3035,8 +3028,8 @@
       <c r="B40" s="14" t="s">
         <v>65</v>
       </c>
-      <c r="C40" s="17" t="s">
-        <v>22</v>
+      <c r="C40" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="D40" s="14" t="s">
         <v>26</v>
@@ -3048,7 +3041,7 @@
         <v>1700</v>
       </c>
       <c r="G40" s="32">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="H40" s="31">
         <v>700</v>
@@ -3068,7 +3061,7 @@
       </c>
       <c r="O40" s="16">
         <f t="shared" si="2"/>
-        <v>3450</v>
+        <v>3550</v>
       </c>
       <c r="P40" s="49"/>
     </row>
@@ -3079,8 +3072,8 @@
       <c r="B41" s="14" t="s">
         <v>66</v>
       </c>
-      <c r="C41" s="26" t="s">
-        <v>55</v>
+      <c r="C41" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D41" s="14" t="s">
         <v>26</v>
@@ -3121,7 +3114,7 @@
         <v>37</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>67</v>
+        <v>86</v>
       </c>
       <c r="C42" s="17" t="s">
         <v>22</v>
@@ -3136,7 +3129,7 @@
         <v>1700</v>
       </c>
       <c r="G42" s="32">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="H42" s="31">
         <v>700</v>
@@ -3147,25 +3140,25 @@
       <c r="J42" s="31">
         <v>400</v>
       </c>
-      <c r="K42" s="14"/>
-      <c r="L42" s="35"/>
+      <c r="K42" s="15"/>
+      <c r="L42" s="33"/>
       <c r="M42" s="15"/>
       <c r="N42" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F42+G42)/21.75/8*1.5*K42+(F42+G42)/21.75/8*2*L42+(F42+G42)/21.75/8*3*M42,0)</f>
         <v>0</v>
       </c>
       <c r="O42" s="16">
-        <f t="shared" si="2"/>
-        <v>3550</v>
-      </c>
-      <c r="P42" s="49"/>
+        <f>N42+F42+G42+H42+I42+J42</f>
+        <v>3500</v>
+      </c>
+      <c r="P42" s="46"/>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A43" s="16">
         <v>38</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="C43" s="17" t="s">
         <v>22</v>
@@ -3180,7 +3173,7 @@
         <v>1700</v>
       </c>
       <c r="G43" s="32">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="H43" s="31">
         <v>700</v>
@@ -3191,18 +3184,18 @@
       <c r="J43" s="31">
         <v>400</v>
       </c>
-      <c r="K43" s="15"/>
-      <c r="L43" s="33"/>
+      <c r="K43" s="14"/>
+      <c r="L43" s="35"/>
       <c r="M43" s="15"/>
       <c r="N43" s="16">
-        <f>ROUND((F43+G43)/21.75/8*1.5*K43+(F43+G43)/21.75/8*2*L43+(F43+G43)/21.75/8*3*M43,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O43" s="16">
-        <f>N43+F43+G43+H43+I43+J43</f>
-        <v>3500</v>
-      </c>
-      <c r="P43" s="46"/>
+        <f t="shared" si="2"/>
+        <v>3450</v>
+      </c>
+      <c r="P43" s="49"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A44" s="16">
@@ -3211,8 +3204,8 @@
       <c r="B44" s="14" t="s">
         <v>68</v>
       </c>
-      <c r="C44" s="17" t="s">
-        <v>22</v>
+      <c r="C44" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="D44" s="14" t="s">
         <v>26</v>
@@ -3224,7 +3217,7 @@
         <v>1700</v>
       </c>
       <c r="G44" s="32">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="H44" s="31">
         <v>700</v>
@@ -3244,7 +3237,7 @@
       </c>
       <c r="O44" s="16">
         <f t="shared" si="2"/>
-        <v>3450</v>
+        <v>3500</v>
       </c>
       <c r="P44" s="49"/>
     </row>
@@ -3255,8 +3248,8 @@
       <c r="B45" s="14" t="s">
         <v>69</v>
       </c>
-      <c r="C45" s="15" t="s">
-        <v>53</v>
+      <c r="C45" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D45" s="14" t="s">
         <v>26</v>
@@ -3268,7 +3261,7 @@
         <v>1700</v>
       </c>
       <c r="G45" s="32">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="H45" s="31">
         <v>700</v>
@@ -3288,7 +3281,7 @@
       </c>
       <c r="O45" s="16">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>3550</v>
       </c>
       <c r="P45" s="49"/>
     </row>
@@ -3297,10 +3290,10 @@
         <v>41</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>70</v>
+        <v>48</v>
       </c>
       <c r="C46" s="17" t="s">
-        <v>22</v>
+        <v>47</v>
       </c>
       <c r="D46" s="14" t="s">
         <v>26</v>
@@ -3323,15 +3316,15 @@
       <c r="J46" s="31">
         <v>400</v>
       </c>
-      <c r="K46" s="14"/>
-      <c r="L46" s="35"/>
-      <c r="M46" s="15"/>
+      <c r="K46" s="23"/>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
       <c r="N46" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F46+G46)/21.75/8*1.5*K46+(F46+G46)/21.75/8*2*L46+(F46+G46)/21.75/8*3*M46,0)</f>
         <v>0</v>
       </c>
       <c r="O46" s="16">
-        <f t="shared" si="2"/>
+        <f>N46+F46+G46+H46+I46+J46</f>
         <v>3550</v>
       </c>
       <c r="P46" s="49"/>
@@ -3340,11 +3333,11 @@
       <c r="A47" s="16">
         <v>42</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>49</v>
+      <c r="B47" s="57" t="s">
+        <v>124</v>
       </c>
       <c r="C47" s="17" t="s">
-        <v>48</v>
+        <v>22</v>
       </c>
       <c r="D47" s="14" t="s">
         <v>26</v>
@@ -3367,25 +3360,25 @@
       <c r="J47" s="31">
         <v>400</v>
       </c>
-      <c r="K47" s="23"/>
-      <c r="L47" s="23"/>
-      <c r="M47" s="23"/>
+      <c r="K47" s="14"/>
+      <c r="L47" s="35"/>
+      <c r="M47" s="15"/>
       <c r="N47" s="16">
-        <f>ROUND((F47+G47)/21.75/8*1.5*K47+(F47+G47)/21.75/8*2*L47+(F47+G47)/21.75/8*3*M47,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O47" s="16">
-        <f>N47+F47+G47+H47+I47+J47</f>
+        <f t="shared" si="2"/>
         <v>3550</v>
       </c>
-      <c r="P47" s="49"/>
+      <c r="P47" s="39"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A48" s="16">
         <v>43</v>
       </c>
-      <c r="B48" s="57" t="s">
-        <v>126</v>
+      <c r="B48" s="14" t="s">
+        <v>72</v>
       </c>
       <c r="C48" s="17" t="s">
         <v>22</v>
@@ -3400,7 +3393,7 @@
         <v>1700</v>
       </c>
       <c r="G48" s="32">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="H48" s="31">
         <v>700</v>
@@ -3420,7 +3413,7 @@
       </c>
       <c r="O48" s="16">
         <f t="shared" si="2"/>
-        <v>3550</v>
+        <v>3500</v>
       </c>
       <c r="P48" s="39"/>
     </row>
@@ -3431,8 +3424,8 @@
       <c r="B49" s="14" t="s">
         <v>73</v>
       </c>
-      <c r="C49" s="17" t="s">
-        <v>22</v>
+      <c r="C49" s="24" t="s">
+        <v>74</v>
       </c>
       <c r="D49" s="14" t="s">
         <v>26</v>
@@ -3444,7 +3437,7 @@
         <v>1700</v>
       </c>
       <c r="G49" s="32">
-        <v>500</v>
+        <v>550</v>
       </c>
       <c r="H49" s="31">
         <v>700</v>
@@ -3464,7 +3457,7 @@
       </c>
       <c r="O49" s="16">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>3550</v>
       </c>
       <c r="P49" s="39"/>
     </row>
@@ -3473,10 +3466,10 @@
         <v>45</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C50" s="24" t="s">
         <v>75</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D50" s="14" t="s">
         <v>26</v>
@@ -3488,7 +3481,7 @@
         <v>1700</v>
       </c>
       <c r="G50" s="32">
-        <v>550</v>
+        <v>400</v>
       </c>
       <c r="H50" s="31">
         <v>700</v>
@@ -3508,7 +3501,7 @@
       </c>
       <c r="O50" s="16">
         <f t="shared" si="2"/>
-        <v>3550</v>
+        <v>3400</v>
       </c>
       <c r="P50" s="39"/>
     </row>
@@ -3519,8 +3512,8 @@
       <c r="B51" s="14" t="s">
         <v>76</v>
       </c>
-      <c r="C51" s="17" t="s">
-        <v>22</v>
+      <c r="C51" s="43" t="s">
+        <v>120</v>
       </c>
       <c r="D51" s="14" t="s">
         <v>26</v>
@@ -3563,8 +3556,8 @@
       <c r="B52" s="14" t="s">
         <v>77</v>
       </c>
-      <c r="C52" s="43" t="s">
-        <v>121</v>
+      <c r="C52" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D52" s="14" t="s">
         <v>26</v>
@@ -3576,7 +3569,7 @@
         <v>1700</v>
       </c>
       <c r="G52" s="32">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="H52" s="31">
         <v>700</v>
@@ -3585,10 +3578,10 @@
         <v>200</v>
       </c>
       <c r="J52" s="31">
-        <v>400</v>
-      </c>
-      <c r="K52" s="14"/>
-      <c r="L52" s="35"/>
+        <v>500</v>
+      </c>
+      <c r="K52" s="15"/>
+      <c r="L52" s="33"/>
       <c r="M52" s="15"/>
       <c r="N52" s="16">
         <f t="shared" si="1"/>
@@ -3596,9 +3589,9 @@
       </c>
       <c r="O52" s="16">
         <f t="shared" si="2"/>
-        <v>3400</v>
-      </c>
-      <c r="P52" s="39"/>
+        <v>3550</v>
+      </c>
+      <c r="P52" s="45"/>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A53" s="16">
@@ -3629,7 +3622,7 @@
         <v>200</v>
       </c>
       <c r="J53" s="31">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="K53" s="15"/>
       <c r="L53" s="33"/>
@@ -3640,9 +3633,9 @@
       </c>
       <c r="O53" s="16">
         <f t="shared" si="2"/>
-        <v>3550</v>
-      </c>
-      <c r="P53" s="45"/>
+        <v>3450</v>
+      </c>
+      <c r="P53" s="46"/>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A54" s="16">
@@ -3664,7 +3657,7 @@
         <v>1700</v>
       </c>
       <c r="G54" s="32">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="H54" s="31">
         <v>700</v>
@@ -3684,9 +3677,9 @@
       </c>
       <c r="O54" s="16">
         <f t="shared" si="2"/>
-        <v>3450</v>
-      </c>
-      <c r="P54" s="46"/>
+        <v>3550</v>
+      </c>
+      <c r="P54" s="50"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A55" s="16">
@@ -3695,8 +3688,8 @@
       <c r="B55" s="14" t="s">
         <v>80</v>
       </c>
-      <c r="C55" s="17" t="s">
-        <v>22</v>
+      <c r="C55" s="26" t="s">
+        <v>81</v>
       </c>
       <c r="D55" s="14" t="s">
         <v>26</v>
@@ -3730,17 +3723,17 @@
         <f t="shared" si="2"/>
         <v>3550</v>
       </c>
-      <c r="P55" s="50"/>
+      <c r="P55" s="46"/>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A56" s="16">
         <v>51</v>
       </c>
       <c r="B56" s="14" t="s">
-        <v>81</v>
-      </c>
-      <c r="C56" s="26" t="s">
         <v>82</v>
+      </c>
+      <c r="C56" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D56" s="14" t="s">
         <v>26</v>
@@ -3862,7 +3855,7 @@
         <f t="shared" si="2"/>
         <v>3550</v>
       </c>
-      <c r="P58" s="46"/>
+      <c r="P58" s="47"/>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A59" s="16">
@@ -3906,14 +3899,14 @@
         <f t="shared" si="2"/>
         <v>3550</v>
       </c>
-      <c r="P59" s="47"/>
+      <c r="P59" s="48"/>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A60" s="16">
         <v>55</v>
       </c>
       <c r="B60" s="14" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C60" s="17" t="s">
         <v>22</v>
@@ -3928,7 +3921,7 @@
         <v>1700</v>
       </c>
       <c r="G60" s="32">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="H60" s="31">
         <v>700</v>
@@ -3948,9 +3941,9 @@
       </c>
       <c r="O60" s="16">
         <f t="shared" si="2"/>
-        <v>3550</v>
-      </c>
-      <c r="P60" s="48"/>
+        <v>3500</v>
+      </c>
+      <c r="P60" s="46"/>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A61" s="16">
@@ -3959,8 +3952,8 @@
       <c r="B61" s="14" t="s">
         <v>88</v>
       </c>
-      <c r="C61" s="17" t="s">
-        <v>22</v>
+      <c r="C61" s="15" t="s">
+        <v>52</v>
       </c>
       <c r="D61" s="14" t="s">
         <v>26</v>
@@ -4004,7 +3997,7 @@
         <v>89</v>
       </c>
       <c r="C62" s="15" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D62" s="14" t="s">
         <v>26</v>
@@ -4016,7 +4009,7 @@
         <v>1700</v>
       </c>
       <c r="G62" s="32">
-        <v>500</v>
+        <v>450</v>
       </c>
       <c r="H62" s="31">
         <v>700</v>
@@ -4036,7 +4029,7 @@
       </c>
       <c r="O62" s="16">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>3450</v>
       </c>
       <c r="P62" s="46"/>
     </row>
@@ -4047,8 +4040,8 @@
       <c r="B63" s="14" t="s">
         <v>90</v>
       </c>
-      <c r="C63" s="15" t="s">
-        <v>53</v>
+      <c r="C63" s="17" t="s">
+        <v>22</v>
       </c>
       <c r="D63" s="14" t="s">
         <v>26</v>
@@ -4060,7 +4053,7 @@
         <v>1700</v>
       </c>
       <c r="G63" s="32">
-        <v>450</v>
+        <v>550</v>
       </c>
       <c r="H63" s="31">
         <v>700</v>
@@ -4080,16 +4073,16 @@
       </c>
       <c r="O63" s="16">
         <f t="shared" si="2"/>
-        <v>3450</v>
-      </c>
-      <c r="P63" s="46"/>
+        <v>3550</v>
+      </c>
+      <c r="P63" s="45"/>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A64" s="16">
         <v>59</v>
       </c>
       <c r="B64" s="14" t="s">
-        <v>91</v>
+        <v>44</v>
       </c>
       <c r="C64" s="17" t="s">
         <v>22</v>
@@ -4115,25 +4108,25 @@
       <c r="J64" s="31">
         <v>400</v>
       </c>
-      <c r="K64" s="15"/>
-      <c r="L64" s="33"/>
-      <c r="M64" s="15"/>
+      <c r="K64" s="23"/>
+      <c r="L64" s="23"/>
+      <c r="M64" s="23"/>
       <c r="N64" s="16">
-        <f t="shared" si="1"/>
+        <f>ROUND((F64+G64)/21.75/8*1.5*K64+(F64+G64)/21.75/8*2*L64+(F64+G64)/21.75/8*3*M64,0)</f>
         <v>0</v>
       </c>
       <c r="O64" s="16">
-        <f t="shared" si="2"/>
+        <f>N64+F64+G64+H64+I64+J64</f>
         <v>3550</v>
       </c>
-      <c r="P64" s="45"/>
+      <c r="P64" s="49"/>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A65" s="16">
         <v>60</v>
       </c>
-      <c r="B65" s="14" t="s">
-        <v>45</v>
+      <c r="B65" s="57" t="s">
+        <v>123</v>
       </c>
       <c r="C65" s="17" t="s">
         <v>22</v>
@@ -4148,7 +4141,7 @@
         <v>1700</v>
       </c>
       <c r="G65" s="32">
-        <v>550</v>
+        <v>500</v>
       </c>
       <c r="H65" s="31">
         <v>700</v>
@@ -4159,25 +4152,25 @@
       <c r="J65" s="31">
         <v>400</v>
       </c>
-      <c r="K65" s="23"/>
-      <c r="L65" s="23"/>
-      <c r="M65" s="23"/>
+      <c r="K65" s="15"/>
+      <c r="L65" s="33"/>
+      <c r="M65" s="15"/>
       <c r="N65" s="16">
-        <f>ROUND((F65+G65)/21.75/8*1.5*K65+(F65+G65)/21.75/8*2*L65+(F65+G65)/21.75/8*3*M65,0)</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O65" s="16">
-        <f>N65+F65+G65+H65+I65+J65</f>
-        <v>3550</v>
-      </c>
-      <c r="P65" s="49"/>
-    </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.4">
+        <f t="shared" si="2"/>
+        <v>3500</v>
+      </c>
+      <c r="P65" s="45"/>
+    </row>
+    <row r="66" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A66" s="16">
         <v>61</v>
       </c>
-      <c r="B66" s="57" t="s">
-        <v>125</v>
+      <c r="B66" s="14" t="s">
+        <v>91</v>
       </c>
       <c r="C66" s="17" t="s">
         <v>22</v>
@@ -4204,7 +4197,7 @@
         <v>400</v>
       </c>
       <c r="K66" s="15"/>
-      <c r="L66" s="33"/>
+      <c r="L66" s="15"/>
       <c r="M66" s="15"/>
       <c r="N66" s="16">
         <f t="shared" si="1"/>
@@ -4214,14 +4207,14 @@
         <f t="shared" si="2"/>
         <v>3500</v>
       </c>
-      <c r="P66" s="45"/>
+      <c r="P66" s="39"/>
     </row>
     <row r="67" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A67" s="16">
         <v>62</v>
       </c>
-      <c r="B67" s="14" t="s">
-        <v>92</v>
+      <c r="B67" s="34" t="s">
+        <v>118</v>
       </c>
       <c r="C67" s="17" t="s">
         <v>22</v>
@@ -4236,7 +4229,7 @@
         <v>1700</v>
       </c>
       <c r="G67" s="32">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="H67" s="31">
         <v>700</v>
@@ -4256,7 +4249,7 @@
       </c>
       <c r="O67" s="16">
         <f t="shared" si="2"/>
-        <v>3500</v>
+        <v>3400</v>
       </c>
       <c r="P67" s="39"/>
     </row>
@@ -4264,14 +4257,14 @@
       <c r="A68" s="16">
         <v>63</v>
       </c>
-      <c r="B68" s="34" t="s">
-        <v>119</v>
+      <c r="B68" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="C68" s="17" t="s">
         <v>22</v>
       </c>
       <c r="D68" s="14" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="E68" s="14" t="s">
         <v>11</v>
@@ -4280,7 +4273,7 @@
         <v>1700</v>
       </c>
       <c r="G68" s="32">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="H68" s="31">
         <v>700</v>
@@ -4299,8 +4292,8 @@
         <v>0</v>
       </c>
       <c r="O68" s="16">
-        <f t="shared" si="2"/>
-        <v>3400</v>
+        <f>N68+F68+G68+H68+I68+J68</f>
+        <v>3450</v>
       </c>
       <c r="P68" s="39"/>
     </row>
@@ -4311,8 +4304,8 @@
       <c r="B69" s="14" t="s">
         <v>93</v>
       </c>
-      <c r="C69" s="17" t="s">
-        <v>22</v>
+      <c r="C69" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="D69" s="14" t="s">
         <v>23</v>
@@ -4335,28 +4328,28 @@
       <c r="J69" s="31">
         <v>400</v>
       </c>
-      <c r="K69" s="15"/>
-      <c r="L69" s="15"/>
-      <c r="M69" s="15"/>
+      <c r="K69" s="14"/>
+      <c r="L69" s="14"/>
+      <c r="M69" s="14"/>
       <c r="N69" s="16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="O69" s="16">
+        <f>ROUND((F69+G69)/21.75/8*1.5*K69+(F69+G69)/21.75/8*2*L69+(F69+G69)/21.75/8*3*M69,0)</f>
+        <v>0</v>
+      </c>
+      <c r="O69" s="32">
         <f>N69+F69+G69+H69+I69+J69</f>
         <v>3450</v>
       </c>
       <c r="P69" s="39"/>
     </row>
-    <row r="70" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A70" s="16">
         <v>65</v>
       </c>
       <c r="B70" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="C70" s="25" t="s">
         <v>95</v>
+      </c>
+      <c r="C70" s="26" t="s">
+        <v>54</v>
       </c>
       <c r="D70" s="14" t="s">
         <v>23</v>
@@ -4368,7 +4361,7 @@
         <v>1700</v>
       </c>
       <c r="G70" s="32">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="H70" s="31">
         <v>700</v>
@@ -4379,28 +4372,28 @@
       <c r="J70" s="31">
         <v>400</v>
       </c>
-      <c r="K70" s="14"/>
-      <c r="L70" s="14"/>
-      <c r="M70" s="14"/>
+      <c r="K70" s="15"/>
+      <c r="L70" s="15"/>
+      <c r="M70" s="15"/>
       <c r="N70" s="16">
         <f>ROUND((F70+G70)/21.75/8*1.5*K70+(F70+G70)/21.75/8*2*L70+(F70+G70)/21.75/8*3*M70,0)</f>
         <v>0</v>
       </c>
-      <c r="O70" s="32">
+      <c r="O70" s="16">
         <f>N70+F70+G70+H70+I70+J70</f>
-        <v>3450</v>
+        <v>3400</v>
       </c>
       <c r="P70" s="39"/>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A71" s="16">
         <v>66</v>
       </c>
       <c r="B71" s="14" t="s">
-        <v>96</v>
-      </c>
-      <c r="C71" s="26" t="s">
-        <v>55</v>
+        <v>97</v>
+      </c>
+      <c r="C71" s="14" t="s">
+        <v>98</v>
       </c>
       <c r="D71" s="14" t="s">
         <v>23</v>
@@ -4408,32 +4401,16 @@
       <c r="E71" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="F71" s="31">
-        <v>1700</v>
-      </c>
-      <c r="G71" s="32">
-        <v>400</v>
-      </c>
-      <c r="H71" s="31">
-        <v>700</v>
-      </c>
-      <c r="I71" s="31">
-        <v>200</v>
-      </c>
-      <c r="J71" s="31">
-        <v>400</v>
-      </c>
+      <c r="F71" s="14"/>
+      <c r="G71" s="14"/>
+      <c r="H71" s="14"/>
+      <c r="I71" s="14"/>
+      <c r="J71" s="15"/>
       <c r="K71" s="15"/>
       <c r="L71" s="15"/>
       <c r="M71" s="15"/>
-      <c r="N71" s="16">
-        <f>ROUND((F71+G71)/21.75/8*1.5*K71+(F71+G71)/21.75/8*2*L71+(F71+G71)/21.75/8*3*M71,0)</f>
-        <v>0</v>
-      </c>
-      <c r="O71" s="16">
-        <f>N71+F71+G71+H71+I71+J71</f>
-        <v>3400</v>
-      </c>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
       <c r="P71" s="39"/>
     </row>
     <row r="72" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
@@ -4441,10 +4418,10 @@
         <v>67</v>
       </c>
       <c r="B72" s="14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C72" s="14" t="s">
         <v>98</v>
-      </c>
-      <c r="C72" s="14" t="s">
-        <v>99</v>
       </c>
       <c r="D72" s="14" t="s">
         <v>23</v>
@@ -4472,7 +4449,7 @@
         <v>100</v>
       </c>
       <c r="C73" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D73" s="14" t="s">
         <v>23</v>
@@ -4485,9 +4462,9 @@
       <c r="H73" s="14"/>
       <c r="I73" s="14"/>
       <c r="J73" s="15"/>
-      <c r="K73" s="15"/>
-      <c r="L73" s="15"/>
-      <c r="M73" s="15"/>
+      <c r="K73" s="14"/>
+      <c r="L73" s="14"/>
+      <c r="M73" s="14"/>
       <c r="N73" s="16"/>
       <c r="O73" s="16"/>
       <c r="P73" s="39"/>
@@ -4500,7 +4477,7 @@
         <v>101</v>
       </c>
       <c r="C74" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D74" s="14" t="s">
         <v>23</v>
@@ -4528,7 +4505,7 @@
         <v>102</v>
       </c>
       <c r="C75" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D75" s="14" t="s">
         <v>23</v>
@@ -4556,7 +4533,7 @@
         <v>103</v>
       </c>
       <c r="C76" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D76" s="14" t="s">
         <v>23</v>
@@ -4584,7 +4561,7 @@
         <v>104</v>
       </c>
       <c r="C77" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D77" s="14" t="s">
         <v>23</v>
@@ -4612,7 +4589,7 @@
         <v>105</v>
       </c>
       <c r="C78" s="14" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D78" s="14" t="s">
         <v>23</v>
@@ -4640,7 +4617,7 @@
         <v>106</v>
       </c>
       <c r="C79" s="14" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="D79" s="14" t="s">
         <v>23</v>
@@ -4665,10 +4642,10 @@
         <v>75</v>
       </c>
       <c r="B80" s="14" t="s">
+        <v>108</v>
+      </c>
+      <c r="C80" s="14" t="s">
         <v>107</v>
-      </c>
-      <c r="C80" s="14" t="s">
-        <v>108</v>
       </c>
       <c r="D80" s="14" t="s">
         <v>23</v>
@@ -4696,7 +4673,7 @@
         <v>109</v>
       </c>
       <c r="C81" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D81" s="14" t="s">
         <v>23</v>
@@ -4714,7 +4691,7 @@
       <c r="M81" s="14"/>
       <c r="N81" s="16"/>
       <c r="O81" s="16"/>
-      <c r="P81" s="39"/>
+      <c r="P81" s="40"/>
     </row>
     <row r="82" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A82" s="16">
@@ -4724,7 +4701,7 @@
         <v>110</v>
       </c>
       <c r="C82" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D82" s="14" t="s">
         <v>23</v>
@@ -4742,7 +4719,7 @@
       <c r="M82" s="14"/>
       <c r="N82" s="16"/>
       <c r="O82" s="16"/>
-      <c r="P82" s="40"/>
+      <c r="P82" s="41"/>
     </row>
     <row r="83" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A83" s="16">
@@ -4752,7 +4729,7 @@
         <v>111</v>
       </c>
       <c r="C83" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D83" s="14" t="s">
         <v>23</v>
@@ -4770,9 +4747,9 @@
       <c r="M83" s="14"/>
       <c r="N83" s="16"/>
       <c r="O83" s="16"/>
-      <c r="P83" s="41"/>
-    </row>
-    <row r="84" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="P83" s="39"/>
+    </row>
+    <row r="84" spans="1:16" x14ac:dyDescent="0.4">
       <c r="A84" s="16">
         <v>79</v>
       </c>
@@ -4780,7 +4757,7 @@
         <v>112</v>
       </c>
       <c r="C84" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D84" s="14" t="s">
         <v>23</v>
@@ -4798,9 +4775,9 @@
       <c r="M84" s="14"/>
       <c r="N84" s="16"/>
       <c r="O84" s="16"/>
-      <c r="P84" s="39"/>
-    </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="P84" s="54"/>
+    </row>
+    <row r="85" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A85" s="16">
         <v>80</v>
       </c>
@@ -4808,7 +4785,7 @@
         <v>113</v>
       </c>
       <c r="C85" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D85" s="14" t="s">
         <v>23</v>
@@ -4826,7 +4803,7 @@
       <c r="M85" s="14"/>
       <c r="N85" s="16"/>
       <c r="O85" s="16"/>
-      <c r="P85" s="54"/>
+      <c r="P85" s="42"/>
     </row>
     <row r="86" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A86" s="16">
@@ -4836,7 +4813,7 @@
         <v>114</v>
       </c>
       <c r="C86" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D86" s="14" t="s">
         <v>23</v>
@@ -4854,17 +4831,17 @@
       <c r="M86" s="14"/>
       <c r="N86" s="16"/>
       <c r="O86" s="16"/>
-      <c r="P86" s="42"/>
+      <c r="P86" s="39"/>
     </row>
     <row r="87" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A87" s="16">
         <v>82</v>
       </c>
-      <c r="B87" s="14" t="s">
-        <v>115</v>
+      <c r="B87" s="30" t="s">
+        <v>117</v>
       </c>
       <c r="C87" s="14" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D87" s="14" t="s">
         <v>23</v>
@@ -4884,111 +4861,83 @@
       <c r="O87" s="16"/>
       <c r="P87" s="39"/>
     </row>
-    <row r="88" spans="1:16" ht="18" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A88" s="16">
-        <v>83</v>
-      </c>
-      <c r="B88" s="30" t="s">
-        <v>118</v>
-      </c>
-      <c r="C88" s="14" t="s">
-        <v>108</v>
-      </c>
-      <c r="D88" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E88" s="14" t="s">
-        <v>11</v>
-      </c>
-      <c r="F88" s="14"/>
-      <c r="G88" s="14"/>
-      <c r="H88" s="14"/>
-      <c r="I88" s="14"/>
-      <c r="J88" s="15"/>
-      <c r="K88" s="14"/>
-      <c r="L88" s="14"/>
-      <c r="M88" s="14"/>
-      <c r="N88" s="16"/>
-      <c r="O88" s="16"/>
-      <c r="P88" s="39"/>
-    </row>
-    <row r="89" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A89" s="14"/>
-      <c r="B89" s="27"/>
-      <c r="C89" s="27"/>
-      <c r="D89" s="27"/>
-      <c r="E89" s="27"/>
-      <c r="F89" s="28">
-        <f t="shared" ref="F89:O89" si="3">SUM(F6:F87)</f>
-        <v>112200</v>
-      </c>
-      <c r="G89" s="28">
+    <row r="88" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A88" s="14"/>
+      <c r="B88" s="27"/>
+      <c r="C88" s="27"/>
+      <c r="D88" s="27"/>
+      <c r="E88" s="27"/>
+      <c r="F88" s="28">
+        <f t="shared" ref="F88:O88" si="3">SUM(F6:F86)</f>
+        <v>110500</v>
+      </c>
+      <c r="G88" s="28">
         <f t="shared" si="3"/>
-        <v>33450</v>
-      </c>
-      <c r="H89" s="28">
+        <v>33000</v>
+      </c>
+      <c r="H88" s="28">
         <f t="shared" si="3"/>
-        <v>46200</v>
-      </c>
-      <c r="I89" s="28">
+        <v>45500</v>
+      </c>
+      <c r="I88" s="28">
         <f t="shared" si="3"/>
-        <v>13000</v>
-      </c>
-      <c r="J89" s="28">
+        <v>12800</v>
+      </c>
+      <c r="J88" s="28">
         <f t="shared" si="3"/>
-        <v>27250</v>
-      </c>
-      <c r="K89" s="28">
+        <v>26850</v>
+      </c>
+      <c r="K88" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L89" s="28">
+      <c r="L88" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M89" s="28">
+      <c r="M88" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="N89" s="28">
+      <c r="N88" s="28">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="O89" s="28">
+      <c r="O88" s="28">
         <f t="shared" si="3"/>
-        <v>232100</v>
-      </c>
-      <c r="P89" s="20"/>
-    </row>
-    <row r="90" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A90" s="6" t="s">
+        <v>228650</v>
+      </c>
+      <c r="P88" s="20"/>
+    </row>
+    <row r="89" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.4">
+      <c r="A89" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="6"/>
+      <c r="F89" s="6" t="s">
         <v>116</v>
       </c>
-      <c r="B90" s="6"/>
-      <c r="C90" s="6"/>
-      <c r="D90" s="6"/>
-      <c r="E90" s="6"/>
-      <c r="F90" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="G90" s="6"/>
-      <c r="H90" s="6"/>
-      <c r="I90" s="6"/>
-      <c r="J90" s="7"/>
-      <c r="K90" s="6"/>
-      <c r="L90" s="6"/>
-      <c r="M90" s="6"/>
-      <c r="N90" s="6"/>
-      <c r="O90" s="36" t="s">
-        <v>120</v>
-      </c>
-      <c r="P90" s="8"/>
-    </row>
+      <c r="G89" s="6"/>
+      <c r="H89" s="6"/>
+      <c r="I89" s="6"/>
+      <c r="J89" s="7"/>
+      <c r="K89" s="6"/>
+      <c r="L89" s="6"/>
+      <c r="M89" s="6"/>
+      <c r="N89" s="6"/>
+      <c r="O89" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="P89" s="8"/>
+    </row>
+    <row r="90" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="91" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
     <row r="92" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
-    <row r="93" spans="1:16" ht="14.25" customHeight="1" x14ac:dyDescent="0.4"/>
   </sheetData>
-  <autoFilter ref="A5:IV90" xr:uid="{5C3602DA-5BF5-4D8F-ADF7-6CCBB9DE1660}"/>
+  <autoFilter ref="A5:IV89" xr:uid="{5C3602DA-5BF5-4D8F-ADF7-6CCBB9DE1660}"/>
   <mergeCells count="4">
     <mergeCell ref="A4:J4"/>
     <mergeCell ref="N4:P4"/>
@@ -4997,7 +4946,7 @@
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D90" xr:uid="{74492FA5-1C60-4656-958B-F50383AD5BA0}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="D6:D89" xr:uid="{74492FA5-1C60-4656-958B-F50383AD5BA0}">
       <formula1>$S$5:$S$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -5006,7 +4955,7 @@
   <pageSetup paperSize="9" scale="73" firstPageNumber="4294967295" fitToHeight="0" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <rowBreaks count="1" manualBreakCount="1">
-    <brk id="30" max="15" man="1"/>
+    <brk id="29" max="15" man="1"/>
   </rowBreaks>
 </worksheet>
 </file>